--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.457472943247069</v>
+        <v>2.782632252856558</v>
       </c>
       <c r="C2">
-        <v>0.7121089132717202</v>
+        <v>0.6544382041702477</v>
       </c>
       <c r="D2">
-        <v>0.045836883330022</v>
+        <v>0.003628565036682296</v>
       </c>
       <c r="E2">
-        <v>0.2716146139274471</v>
+        <v>0.03436598439509453</v>
       </c>
       <c r="F2">
-        <v>2.474520699295681</v>
+        <v>2.644503585641999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.423782395001922</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08615586636438621</v>
       </c>
       <c r="K2">
-        <v>0.7219163686672445</v>
+        <v>0.7730897428913295</v>
       </c>
       <c r="L2">
-        <v>0.4942387097954466</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6825559012056956</v>
+      </c>
+      <c r="N2">
+        <v>1.538040241235862</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.115512103156902</v>
+        <v>2.419737085534905</v>
       </c>
       <c r="C3">
-        <v>0.6119835708658456</v>
+        <v>0.5660009884628607</v>
       </c>
       <c r="D3">
-        <v>0.04479455917582342</v>
+        <v>0.003308606207806264</v>
       </c>
       <c r="E3">
-        <v>0.2332266693641998</v>
+        <v>0.03260272591294999</v>
       </c>
       <c r="F3">
-        <v>2.19720007815981</v>
+        <v>2.443925545663248</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.287281121536239</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08188795484758415</v>
       </c>
       <c r="K3">
-        <v>0.6211203652578519</v>
+        <v>0.6712548070442708</v>
       </c>
       <c r="L3">
-        <v>0.4241082421634701</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5978669359526378</v>
+      </c>
+      <c r="N3">
+        <v>1.558141853352026</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908919783024288</v>
+        <v>2.201185865861476</v>
       </c>
       <c r="C4">
-        <v>0.5516061006480584</v>
+        <v>0.5127341017802394</v>
       </c>
       <c r="D4">
-        <v>0.04425441974961686</v>
+        <v>0.003119005032728772</v>
       </c>
       <c r="E4">
-        <v>0.2102294708448085</v>
+        <v>0.03156408815368827</v>
       </c>
       <c r="F4">
-        <v>2.032407556733673</v>
+        <v>2.325973782202482</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.206656238457299</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0794099631038172</v>
       </c>
       <c r="K4">
-        <v>0.5602558306741159</v>
+        <v>0.6099226275415504</v>
       </c>
       <c r="L4">
-        <v>0.3819998603520531</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5469427642854967</v>
+      </c>
+      <c r="N4">
+        <v>1.572598371838154</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.825446450006694</v>
+        <v>2.113063595687606</v>
       </c>
       <c r="C5">
-        <v>0.5272335374450847</v>
+        <v>0.4912526748120456</v>
       </c>
       <c r="D5">
-        <v>0.04405669479277918</v>
+        <v>0.00304318860486763</v>
       </c>
       <c r="E5">
-        <v>0.2009809833405782</v>
+        <v>0.0311512140171839</v>
       </c>
       <c r="F5">
-        <v>1.966468465356954</v>
+        <v>2.279097304577647</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.174512088591442</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07843334224459042</v>
       </c>
       <c r="K5">
-        <v>0.5356697736776468</v>
+        <v>0.5851915271746577</v>
       </c>
       <c r="L5">
-        <v>0.3650437161325684</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5264295535092529</v>
+      </c>
+      <c r="N5">
+        <v>1.578990123226561</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.811625276515542</v>
+        <v>2.098483975210684</v>
       </c>
       <c r="C6">
-        <v>0.5231992611163037</v>
+        <v>0.4876983472561847</v>
       </c>
       <c r="D6">
-        <v>0.04402514054054407</v>
+        <v>0.003030679409953052</v>
       </c>
       <c r="E6">
-        <v>0.1994521348606924</v>
+        <v>0.03108326443448561</v>
       </c>
       <c r="F6">
-        <v>1.955588227465341</v>
+        <v>2.271382080881793</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.169215044630917</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07827310561397027</v>
       </c>
       <c r="K6">
-        <v>0.5315992469321102</v>
+        <v>0.5810997312439312</v>
       </c>
       <c r="L6">
-        <v>0.3622394577417012</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5230369011501068</v>
+      </c>
+      <c r="N6">
+        <v>1.580080848245572</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907791305600568</v>
+        <v>2.19999378459687</v>
       </c>
       <c r="C7">
-        <v>0.5512765214676847</v>
+        <v>0.512443527374046</v>
       </c>
       <c r="D7">
-        <v>0.04425166591261487</v>
+        <v>0.003117977022500718</v>
       </c>
       <c r="E7">
-        <v>0.2101042705816525</v>
+        <v>0.03155847883099661</v>
       </c>
       <c r="F7">
-        <v>2.031513564021353</v>
+        <v>2.325336921751742</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.206219965154972</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07939666105689014</v>
       </c>
       <c r="K7">
-        <v>0.5599234281455736</v>
+        <v>0.6095880815217782</v>
       </c>
       <c r="L7">
-        <v>0.3817704054868969</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5466651888308078</v>
+      </c>
+      <c r="N7">
+        <v>1.572682585318177</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.338780140916185</v>
+        <v>2.656535752487514</v>
       </c>
       <c r="C8">
-        <v>0.6773289685497446</v>
+        <v>0.6237085609020312</v>
       </c>
       <c r="D8">
-        <v>0.04545503394980699</v>
+        <v>0.003516641985718216</v>
       </c>
       <c r="E8">
-        <v>0.2582461212361267</v>
+        <v>0.03374844587611214</v>
       </c>
       <c r="F8">
-        <v>2.377658906393478</v>
+        <v>2.57418942144588</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.375998040430815</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08465303741768082</v>
       </c>
       <c r="K8">
-        <v>0.686923298083542</v>
+        <v>0.7377049881528563</v>
       </c>
       <c r="L8">
-        <v>0.4698372719757629</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.653112107361558</v>
+      </c>
+      <c r="N8">
+        <v>1.544512989444598</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.21753638350873</v>
+        <v>3.592416219867005</v>
       </c>
       <c r="C9">
-        <v>0.9355394344503054</v>
+        <v>0.8518534142066017</v>
       </c>
       <c r="D9">
-        <v>0.04874723152996552</v>
+        <v>0.004367575295248116</v>
       </c>
       <c r="E9">
-        <v>0.3582791403747407</v>
+        <v>0.0384266668058082</v>
       </c>
       <c r="F9">
-        <v>3.108275739710479</v>
+        <v>3.109438090913244</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.738812611297845</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09622478656727651</v>
       </c>
       <c r="K9">
-        <v>0.9461923183123133</v>
+        <v>1.000344497614321</v>
       </c>
       <c r="L9">
-        <v>0.6519349919262112</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.871972039734672</v>
+      </c>
+      <c r="N9">
+        <v>1.507598697316226</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.894600769513147</v>
+        <v>4.315356356923701</v>
       </c>
       <c r="C10">
-        <v>1.135660200342926</v>
+        <v>1.028302986014239</v>
       </c>
       <c r="D10">
-        <v>0.05196217708490991</v>
+        <v>0.005059723204444921</v>
       </c>
       <c r="E10">
-        <v>0.4369446964032804</v>
+        <v>0.04215174145535627</v>
       </c>
       <c r="F10">
-        <v>3.689948874324386</v>
+        <v>3.540847483670035</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.030918950466969</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1057058063317626</v>
       </c>
       <c r="K10">
-        <v>1.146273400747702</v>
+        <v>1.203281538822822</v>
       </c>
       <c r="L10">
-        <v>0.7944261776383286</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.041430976728059</v>
+      </c>
+      <c r="N10">
+        <v>1.49408667011231</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.212379081328777</v>
+        <v>4.654665560727494</v>
       </c>
       <c r="C11">
-        <v>1.229954897049709</v>
+        <v>1.11121324040721</v>
       </c>
       <c r="D11">
-        <v>0.05366002318801577</v>
+        <v>0.005396150954862122</v>
       </c>
       <c r="E11">
-        <v>0.4743247845893777</v>
+        <v>0.0439228437224326</v>
       </c>
       <c r="F11">
-        <v>3.967861185504347</v>
+        <v>3.747823811166683</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.171308628875394</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1102856252150275</v>
       </c>
       <c r="K11">
-        <v>1.240281153921657</v>
+        <v>1.298554912445994</v>
       </c>
       <c r="L11">
-        <v>0.8619412214378173</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.121050304123727</v>
+      </c>
+      <c r="N11">
+        <v>1.491530840569681</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.334412265335686</v>
+        <v>4.784920316252908</v>
       </c>
       <c r="C12">
-        <v>1.266229911118273</v>
+        <v>1.14305931285196</v>
       </c>
       <c r="D12">
-        <v>0.05434317454620441</v>
+        <v>0.005527376000598494</v>
       </c>
       <c r="E12">
-        <v>0.4887562909493397</v>
+        <v>0.04460585897671265</v>
       </c>
       <c r="F12">
-        <v>4.075366089942804</v>
+        <v>3.827978565129115</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.225745250975947</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1120634809698018</v>
       </c>
       <c r="K12">
-        <v>1.276399395679519</v>
+        <v>1.335133692669558</v>
       </c>
       <c r="L12">
-        <v>0.8879755548528294</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.151626678935841</v>
+      </c>
+      <c r="N12">
+        <v>1.491141659327752</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.308049582225408</v>
+        <v>4.756784485238995</v>
       </c>
       <c r="C13">
-        <v>1.258390433056547</v>
+        <v>1.136179469182309</v>
       </c>
       <c r="D13">
-        <v>0.05419414309382375</v>
+        <v>0.005498931059364054</v>
       </c>
       <c r="E13">
-        <v>0.4856350724900693</v>
+        <v>0.04445818763456089</v>
       </c>
       <c r="F13">
-        <v>4.052105994401529</v>
+        <v>3.810632663196571</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.213961246268312</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1116785592285368</v>
       </c>
       <c r="K13">
-        <v>1.26859599117239</v>
+        <v>1.327232203625982</v>
       </c>
       <c r="L13">
-        <v>0.8823463600757719</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.145021467384581</v>
+      </c>
+      <c r="N13">
+        <v>1.491198652744501</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222382964829251</v>
+        <v>4.665344663949043</v>
       </c>
       <c r="C14">
-        <v>1.232927260450651</v>
+        <v>1.11382378670487</v>
       </c>
       <c r="D14">
-        <v>0.05371537985448782</v>
+        <v>0.005406865559873353</v>
       </c>
       <c r="E14">
-        <v>0.4755062330646638</v>
+        <v>0.04397878029208968</v>
       </c>
       <c r="F14">
-        <v>3.976658050822323</v>
+        <v>3.754381108091565</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.175760400907706</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1104309847575138</v>
       </c>
       <c r="K14">
-        <v>1.243241644399959</v>
+        <v>1.301553761921937</v>
       </c>
       <c r="L14">
-        <v>0.8640731961364736</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.123556910665215</v>
+      </c>
+      <c r="N14">
+        <v>1.491486836687102</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.170140208337898</v>
+        <v>4.609573556316889</v>
       </c>
       <c r="C15">
-        <v>1.217407481475277</v>
+        <v>1.100191098416985</v>
       </c>
       <c r="D15">
-        <v>0.05342756944914129</v>
+        <v>0.005350995104798528</v>
       </c>
       <c r="E15">
-        <v>0.4693395697928224</v>
+        <v>0.04368677860407111</v>
       </c>
       <c r="F15">
-        <v>3.93075047699466</v>
+        <v>3.720164395174805</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.152533512790086</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1096726510584389</v>
       </c>
       <c r="K15">
-        <v>1.227781947615824</v>
+        <v>1.285892624033309</v>
       </c>
       <c r="L15">
-        <v>0.8529439004814634</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.110466755473013</v>
+      </c>
+      <c r="N15">
+        <v>1.491740715680947</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.874053817290985</v>
+        <v>4.29341357628681</v>
       </c>
       <c r="C16">
-        <v>1.129571494521741</v>
+        <v>1.022943522419524</v>
       </c>
       <c r="D16">
-        <v>0.05185647370731061</v>
+        <v>0.005038229816880957</v>
       </c>
       <c r="E16">
-        <v>0.434537762176916</v>
+        <v>0.04203764584561043</v>
       </c>
       <c r="F16">
-        <v>3.672083238993707</v>
+        <v>3.527556284225199</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.021911165220132</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1054123033028986</v>
       </c>
       <c r="K16">
-        <v>1.140197268661083</v>
+        <v>1.19712092513123</v>
       </c>
       <c r="L16">
-        <v>0.790074704790932</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.036283736614095</v>
+      </c>
+      <c r="N16">
+        <v>1.494331085439242</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695111800669963</v>
+        <v>4.102310738174253</v>
       </c>
       <c r="C17">
-        <v>1.076587112647275</v>
+        <v>0.9762780775936335</v>
       </c>
       <c r="D17">
-        <v>0.05095712353155335</v>
+        <v>0.004852357068585</v>
       </c>
       <c r="E17">
-        <v>0.4136275648143624</v>
+        <v>0.04104645484380853</v>
       </c>
       <c r="F17">
-        <v>3.517040693847122</v>
+        <v>3.412301923254148</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.943830602988001</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1028705545146451</v>
       </c>
       <c r="K17">
-        <v>1.087291999904707</v>
+        <v>1.143470221564371</v>
       </c>
       <c r="L17">
-        <v>0.7522498118109056</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9914649383858674</v>
+      </c>
+      <c r="N17">
+        <v>1.496881553596708</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.593089508917956</v>
+        <v>3.993358311981922</v>
       </c>
       <c r="C18">
-        <v>1.046411825938065</v>
+        <v>0.949681357436333</v>
       </c>
       <c r="D18">
-        <v>0.05046155190698443</v>
+        <v>0.004747427126656767</v>
       </c>
       <c r="E18">
-        <v>0.4017474302152166</v>
+        <v>0.04048346383446244</v>
       </c>
       <c r="F18">
-        <v>3.429092682978109</v>
+        <v>3.347004427387674</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.899614220872763</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1014333757418839</v>
       </c>
       <c r="K18">
-        <v>1.057137565946533</v>
+        <v>1.112884916191078</v>
       </c>
       <c r="L18">
-        <v>0.7307420855004736</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9659204503588157</v>
+      </c>
+      <c r="N18">
+        <v>1.498682300034261</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.558693032565259</v>
+        <v>3.956627127082186</v>
       </c>
       <c r="C19">
-        <v>1.036243745917119</v>
+        <v>0.9407161039030427</v>
       </c>
       <c r="D19">
-        <v>0.05029731260808745</v>
+        <v>0.004712219612381219</v>
       </c>
       <c r="E19">
-        <v>0.397748932695805</v>
+        <v>0.04029402915056757</v>
       </c>
       <c r="F19">
-        <v>3.399516134092465</v>
+        <v>3.325059852221784</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.884756994383466</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1009508781877884</v>
       </c>
       <c r="K19">
-        <v>1.046972572474743</v>
+        <v>1.102574031765826</v>
       </c>
       <c r="L19">
-        <v>0.7235003252830339</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9573099714722986</v>
+      </c>
+      <c r="N19">
+        <v>1.499347570341214</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.714065331587676</v>
+        <v>4.122552299265692</v>
       </c>
       <c r="C20">
-        <v>1.082195683043324</v>
+        <v>0.9812199653292168</v>
       </c>
       <c r="D20">
-        <v>0.05105057134302626</v>
+        <v>0.004871933876642309</v>
       </c>
       <c r="E20">
-        <v>0.4158379752279657</v>
+        <v>0.04115122327079668</v>
       </c>
       <c r="F20">
-        <v>3.533415733799529</v>
+        <v>3.424466495912981</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.952069328912955</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1031385291392652</v>
       </c>
       <c r="K20">
-        <v>1.092894762742347</v>
+        <v>1.149152643934471</v>
       </c>
       <c r="L20">
-        <v>0.7562501141427802</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9962113236132168</v>
+      </c>
+      <c r="N20">
+        <v>1.49657508273782</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.247496697212114</v>
+        <v>4.692152543936686</v>
       </c>
       <c r="C21">
-        <v>1.2403901326648</v>
+        <v>1.120377380309321</v>
       </c>
       <c r="D21">
-        <v>0.0538548562438308</v>
+        <v>0.005433797080817371</v>
       </c>
       <c r="E21">
-        <v>0.4784733988032812</v>
+        <v>0.04411924754024277</v>
       </c>
       <c r="F21">
-        <v>3.998754360904258</v>
+        <v>3.770853281803198</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.186944629256345</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.110796199905316</v>
       </c>
       <c r="K21">
-        <v>1.250673941901667</v>
+        <v>1.309081894301144</v>
       </c>
       <c r="L21">
-        <v>0.8694270614325745</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.129849463699394</v>
+      </c>
+      <c r="N21">
+        <v>1.491385944767472</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.60619091336946</v>
+        <v>5.074861775700867</v>
       </c>
       <c r="C22">
-        <v>1.347146862904879</v>
+        <v>1.213986291751837</v>
       </c>
       <c r="D22">
-        <v>0.05592586906684716</v>
+        <v>0.005823758134702928</v>
       </c>
       <c r="E22">
-        <v>0.5210489187259597</v>
+        <v>0.04613168458672057</v>
       </c>
       <c r="F22">
-        <v>4.316292895635996</v>
+        <v>4.007730478133823</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.34799017348935</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1160578891607145</v>
       </c>
       <c r="K22">
-        <v>1.356873052429748</v>
+        <v>1.416567242346929</v>
       </c>
       <c r="L22">
-        <v>0.9461695446727418</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.219709712738364</v>
+      </c>
+      <c r="N22">
+        <v>1.491403033875301</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.413718640600962</v>
+        <v>4.869549837605689</v>
       </c>
       <c r="C23">
-        <v>1.289823374781065</v>
+        <v>1.163756164224594</v>
       </c>
       <c r="D23">
-        <v>0.05479630677771752</v>
+        <v>0.00561326906410109</v>
       </c>
       <c r="E23">
-        <v>0.4981577324808768</v>
+        <v>0.04505047337134727</v>
       </c>
       <c r="F23">
-        <v>4.145457272663293</v>
+        <v>3.880258006927107</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.2612742571865</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1132242025171806</v>
       </c>
       <c r="K23">
-        <v>1.299876981561141</v>
+        <v>1.358901348668255</v>
       </c>
       <c r="L23">
-        <v>0.9049264566549056</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.171496132127118</v>
+      </c>
+      <c r="N23">
+        <v>1.491059047515591</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705493802036415</v>
+        <v>4.113398258540258</v>
       </c>
       <c r="C24">
-        <v>1.079659164355263</v>
+        <v>0.9789850208144628</v>
       </c>
       <c r="D24">
-        <v>0.05100825715820179</v>
+        <v>0.004863077240685243</v>
       </c>
       <c r="E24">
-        <v>0.4148382116464973</v>
+        <v>0.04110383620224312</v>
       </c>
       <c r="F24">
-        <v>3.526008903672931</v>
+        <v>3.418963908011307</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.948342518396458</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.103017303109354</v>
       </c>
       <c r="K24">
-        <v>1.090360945683827</v>
+        <v>1.146582819016785</v>
       </c>
       <c r="L24">
-        <v>0.7544408410529897</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9940647946021102</v>
+      </c>
+      <c r="N24">
+        <v>1.496712601079906</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.975171976369495</v>
+        <v>3.333869912776322</v>
       </c>
       <c r="C25">
-        <v>0.8641563125594303</v>
+        <v>0.7888033913343406</v>
       </c>
       <c r="D25">
-        <v>0.04773535035093346</v>
+        <v>0.004127672452320041</v>
       </c>
       <c r="E25">
-        <v>0.3304503172086868</v>
+        <v>0.03711479275382246</v>
       </c>
       <c r="F25">
-        <v>2.903811178266125</v>
+        <v>2.95868130978846</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.636765220351563</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0929389166802892</v>
       </c>
       <c r="K25">
-        <v>0.874639340504217</v>
+        <v>0.9277821354029072</v>
       </c>
       <c r="L25">
-        <v>0.6013847647834396</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0.8114415371887773</v>
+      </c>
+      <c r="N25">
+        <v>1.51538939793916</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.782632252856558</v>
+        <v>0.9548035149301484</v>
       </c>
       <c r="C2">
-        <v>0.6544382041702477</v>
+        <v>0.1714904899180283</v>
       </c>
       <c r="D2">
-        <v>0.003628565036682296</v>
+        <v>0.2208161341330594</v>
       </c>
       <c r="E2">
-        <v>0.03436598439509453</v>
+        <v>0.175615021015858</v>
       </c>
       <c r="F2">
-        <v>2.644503585641999</v>
+        <v>0.7421634586297969</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2891875016342524</v>
       </c>
       <c r="J2">
-        <v>0.08615586636438621</v>
+        <v>0.1848359447103931</v>
       </c>
       <c r="K2">
-        <v>0.7730897428913295</v>
+        <v>1.07349497957162</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6825559012056956</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538040241235862</v>
+        <v>0.7483494147297964</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.59669648659181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.419737085534905</v>
+        <v>0.8298239992023468</v>
       </c>
       <c r="C3">
-        <v>0.5660009884628607</v>
+        <v>0.1491394858536239</v>
       </c>
       <c r="D3">
-        <v>0.003308606207806264</v>
+        <v>0.1951367682238754</v>
       </c>
       <c r="E3">
-        <v>0.03260272591294999</v>
+        <v>0.156260745521827</v>
       </c>
       <c r="F3">
-        <v>2.443925545663248</v>
+        <v>0.7100145212248492</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2915746615965951</v>
       </c>
       <c r="J3">
-        <v>0.08188795484758415</v>
+        <v>0.1654361870770629</v>
       </c>
       <c r="K3">
-        <v>0.6712548070442708</v>
+        <v>0.9329789936018358</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5978669359526378</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.558141853352026</v>
+        <v>0.7846099228268173</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.563085860047764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.201185865861476</v>
+        <v>0.7532121784362289</v>
       </c>
       <c r="C4">
-        <v>0.5127341017802394</v>
+        <v>0.1354418869834007</v>
       </c>
       <c r="D4">
-        <v>0.003119005032728772</v>
+        <v>0.1795038939382323</v>
       </c>
       <c r="E4">
-        <v>0.03156408815368827</v>
+        <v>0.144536060384965</v>
       </c>
       <c r="F4">
-        <v>2.325973782202482</v>
+        <v>0.6915387480952688</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2936292187948197</v>
       </c>
       <c r="J4">
-        <v>0.0794099631038172</v>
+        <v>0.1537396067453685</v>
       </c>
       <c r="K4">
-        <v>0.6099226275415504</v>
+        <v>0.8468457244845524</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5469427642854967</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.572598371838154</v>
+        <v>0.8078504311327865</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.54554120679316</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.113063595687606</v>
+        <v>0.7220142561562852</v>
       </c>
       <c r="C5">
-        <v>0.4912526748120456</v>
+        <v>0.129864344647487</v>
       </c>
       <c r="D5">
-        <v>0.00304318860486763</v>
+        <v>0.1731642604246986</v>
       </c>
       <c r="E5">
-        <v>0.0311512140171839</v>
+        <v>0.1397950071925003</v>
       </c>
       <c r="F5">
-        <v>2.279097304577647</v>
+        <v>0.6843125763844498</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2946090434595092</v>
       </c>
       <c r="J5">
-        <v>0.07843334224459042</v>
+        <v>0.1490231663718831</v>
       </c>
       <c r="K5">
-        <v>0.5851915271746577</v>
+        <v>0.81177045781277</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5264295535092529</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.578990123226561</v>
+        <v>0.8175609974466909</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.53913536511206</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.098483975210684</v>
+        <v>0.716834921412385</v>
       </c>
       <c r="C6">
-        <v>0.4876983472561847</v>
+        <v>0.1289383982331884</v>
       </c>
       <c r="D6">
-        <v>0.003030679409953052</v>
+        <v>0.1721133527656065</v>
       </c>
       <c r="E6">
-        <v>0.03108326443448561</v>
+        <v>0.139009896535331</v>
       </c>
       <c r="F6">
-        <v>2.271382080881793</v>
+        <v>0.6831305440994058</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2947801978949869</v>
       </c>
       <c r="J6">
-        <v>0.07827310561397027</v>
+        <v>0.1482429111505112</v>
       </c>
       <c r="K6">
-        <v>0.5810997312439312</v>
+        <v>0.8059474066505743</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5230369011501068</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.580080848245572</v>
+        <v>0.8191877567621404</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.538115639800779</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.19999378459687</v>
+        <v>0.7527913556339172</v>
       </c>
       <c r="C7">
-        <v>0.512443527374046</v>
+        <v>0.1353666515397975</v>
       </c>
       <c r="D7">
-        <v>0.003117977022500718</v>
+        <v>0.1794182740788557</v>
       </c>
       <c r="E7">
-        <v>0.03155847883099661</v>
+        <v>0.1444719756774724</v>
       </c>
       <c r="F7">
-        <v>2.325336921751742</v>
+        <v>0.6914400864037873</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2936418628454227</v>
       </c>
       <c r="J7">
-        <v>0.07939666105689014</v>
+        <v>0.1536758018868412</v>
       </c>
       <c r="K7">
-        <v>0.6095880815217782</v>
+        <v>0.8463726017454292</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5466651888308078</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.572682585318177</v>
+        <v>0.8079804272762985</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.545451847582456</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.656535752487514</v>
+        <v>0.9116783701102236</v>
       </c>
       <c r="C8">
-        <v>0.6237085609020312</v>
+        <v>0.1637770965071041</v>
       </c>
       <c r="D8">
-        <v>0.003516641985718216</v>
+        <v>0.211932208178041</v>
       </c>
       <c r="E8">
-        <v>0.03374844587611214</v>
+        <v>0.1689067596849583</v>
       </c>
       <c r="F8">
-        <v>2.57418942144588</v>
+        <v>0.7308069862343913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2898850017164811</v>
       </c>
       <c r="J8">
-        <v>0.08465303741768082</v>
+        <v>0.1780997983021635</v>
       </c>
       <c r="K8">
-        <v>0.7377049881528563</v>
+        <v>1.025007999528327</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.653112107361558</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.544512989444598</v>
+        <v>0.7606459059171353</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.584444831903852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.592416219867005</v>
+        <v>1.22473430325033</v>
       </c>
       <c r="C9">
-        <v>0.8518534142066017</v>
+        <v>0.2198044405544692</v>
       </c>
       <c r="D9">
-        <v>0.004367575295248116</v>
+        <v>0.2768987012890136</v>
       </c>
       <c r="E9">
-        <v>0.0384266668058082</v>
+        <v>0.2182342447274408</v>
       </c>
       <c r="F9">
-        <v>3.109438090913244</v>
+        <v>0.8187458416028619</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2874498673331729</v>
       </c>
       <c r="J9">
-        <v>0.09622478656727651</v>
+        <v>0.2278949251509488</v>
       </c>
       <c r="K9">
-        <v>1.000344497614321</v>
+        <v>1.377021796137058</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.871972039734672</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.507598697316226</v>
+        <v>0.675835517673681</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.687058226760172</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.315356356923701</v>
+        <v>1.456365292075446</v>
       </c>
       <c r="C10">
-        <v>1.028302986014239</v>
+        <v>0.2613237280859977</v>
       </c>
       <c r="D10">
-        <v>0.005059723204444921</v>
+        <v>0.3255760586493324</v>
       </c>
       <c r="E10">
-        <v>0.04215174145535627</v>
+        <v>0.2555587410206641</v>
       </c>
       <c r="F10">
-        <v>3.540847483670035</v>
+        <v>0.8909535431644997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2890480596856193</v>
       </c>
       <c r="J10">
-        <v>0.1057058063317626</v>
+        <v>0.2659261006936333</v>
       </c>
       <c r="K10">
-        <v>1.203281538822822</v>
+        <v>1.637550139055605</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.041430976728059</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.49408667011231</v>
+        <v>0.618794177144304</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.780760057873238</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.654665560727494</v>
+        <v>1.562267847272295</v>
       </c>
       <c r="C11">
-        <v>1.11121324040721</v>
+        <v>0.2803287899038196</v>
       </c>
       <c r="D11">
-        <v>0.005396150954862122</v>
+        <v>0.3479761559543846</v>
       </c>
       <c r="E11">
-        <v>0.0439228437224326</v>
+        <v>0.2728269038600359</v>
       </c>
       <c r="F11">
-        <v>3.747823811166683</v>
+        <v>0.9257014557067009</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2906003719014691</v>
       </c>
       <c r="J11">
-        <v>0.1102856252150275</v>
+        <v>0.2836101003606046</v>
       </c>
       <c r="K11">
-        <v>1.298554912445994</v>
+        <v>1.756690898621628</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.121050304123727</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.491530840569681</v>
+        <v>0.5940793065985268</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.82792457223772</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.784920316252908</v>
+        <v>1.602462047397069</v>
       </c>
       <c r="C12">
-        <v>1.14305931285196</v>
+        <v>0.2875459283434338</v>
       </c>
       <c r="D12">
-        <v>0.005527376000598494</v>
+        <v>0.3564997308847637</v>
       </c>
       <c r="E12">
-        <v>0.04460585897671265</v>
+        <v>0.2794121307471613</v>
       </c>
       <c r="F12">
-        <v>3.827978565129115</v>
+        <v>0.9391549123977541</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2913148709051683</v>
       </c>
       <c r="J12">
-        <v>0.1120634809698018</v>
+        <v>0.2903677598070118</v>
       </c>
       <c r="K12">
-        <v>1.335133692669558</v>
+        <v>1.801914255675257</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.151626678935841</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.491141659327752</v>
+        <v>0.5849060253569878</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.846487219260496</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.756784485238995</v>
+        <v>1.59380120673967</v>
       </c>
       <c r="C13">
-        <v>1.136179469182309</v>
+        <v>0.2859906270354315</v>
       </c>
       <c r="D13">
-        <v>0.005498931059364054</v>
+        <v>0.3546621257739133</v>
       </c>
       <c r="E13">
-        <v>0.04445818763456089</v>
+        <v>0.2779917555543463</v>
       </c>
       <c r="F13">
-        <v>3.810632663196571</v>
+        <v>0.9362439769807196</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2911552240766255</v>
       </c>
       <c r="J13">
-        <v>0.1116785592285368</v>
+        <v>0.2889095593531437</v>
       </c>
       <c r="K13">
-        <v>1.327232203625982</v>
+        <v>1.792169531227927</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.145021467384581</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.491198652744501</v>
+        <v>0.5868732580991498</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.842457350575529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.665344663949043</v>
+        <v>1.565572732930661</v>
       </c>
       <c r="C14">
-        <v>1.11382378670487</v>
+        <v>0.2809221202578556</v>
       </c>
       <c r="D14">
-        <v>0.005406865559873353</v>
+        <v>0.3486765456023733</v>
       </c>
       <c r="E14">
-        <v>0.04397878029208968</v>
+        <v>0.2733677222028561</v>
       </c>
       <c r="F14">
-        <v>3.754381108091565</v>
+        <v>0.9268022331286545</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2906565678085755</v>
       </c>
       <c r="J14">
-        <v>0.1104309847575138</v>
+        <v>0.2841647965816918</v>
       </c>
       <c r="K14">
-        <v>1.301553761921937</v>
+        <v>1.760409195740891</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.123556910665215</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.491486836687102</v>
+        <v>0.5933208438611661</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.829437356970914</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.609573556316889</v>
+        <v>1.548294306933087</v>
       </c>
       <c r="C15">
-        <v>1.100191098416985</v>
+        <v>0.2778202671452448</v>
       </c>
       <c r="D15">
-        <v>0.005350995104798528</v>
+        <v>0.345015694303811</v>
       </c>
       <c r="E15">
-        <v>0.04368677860407111</v>
+        <v>0.270541519422089</v>
       </c>
       <c r="F15">
-        <v>3.720164395174805</v>
+        <v>0.9210580085994877</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2903678690828606</v>
       </c>
       <c r="J15">
-        <v>0.1096726510584389</v>
+        <v>0.2812666354295175</v>
       </c>
       <c r="K15">
-        <v>1.285892624033309</v>
+        <v>1.740969591201406</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.110466755473013</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.491740715680947</v>
+        <v>0.5972946166074369</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.821555250625181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.29341357628681</v>
+        <v>1.449456252754743</v>
       </c>
       <c r="C16">
-        <v>1.022943522419524</v>
+        <v>0.2600843567174138</v>
       </c>
       <c r="D16">
-        <v>0.005038229816880957</v>
+        <v>0.3241176789519074</v>
       </c>
       <c r="E16">
-        <v>0.04203764584561043</v>
+        <v>0.2544364272934203</v>
       </c>
       <c r="F16">
-        <v>3.527556284225199</v>
+        <v>0.8887227645127922</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2889638912357135</v>
       </c>
       <c r="J16">
-        <v>0.1054123033028986</v>
+        <v>0.2647786268718164</v>
       </c>
       <c r="K16">
-        <v>1.19712092513123</v>
+        <v>1.629778051781443</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.036283736614095</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.494331085439242</v>
+        <v>0.6204348733227647</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.777773262209394</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.102310738174253</v>
+        <v>1.388968770565157</v>
       </c>
       <c r="C17">
-        <v>0.9762780775936335</v>
+        <v>0.2492364444532882</v>
       </c>
       <c r="D17">
-        <v>0.004852357068585</v>
+        <v>0.3113660655978379</v>
       </c>
       <c r="E17">
-        <v>0.04104645484380853</v>
+        <v>0.2446336745798163</v>
       </c>
       <c r="F17">
-        <v>3.412301923254148</v>
+        <v>0.8693879889101055</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2883195017854732</v>
       </c>
       <c r="J17">
-        <v>0.1028705545146451</v>
+        <v>0.2547660977674013</v>
       </c>
       <c r="K17">
-        <v>1.143470221564371</v>
+        <v>1.561737769591559</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9914649383858674</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.496881553596708</v>
+        <v>0.6349523644919994</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.752111372592708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.993358311981922</v>
+        <v>1.354227151491699</v>
       </c>
       <c r="C18">
-        <v>0.949681357436333</v>
+        <v>0.2430078745864108</v>
       </c>
       <c r="D18">
-        <v>0.004747427126656767</v>
+        <v>0.3040555488807968</v>
       </c>
       <c r="E18">
-        <v>0.04048346383446244</v>
+        <v>0.2390223063511172</v>
       </c>
       <c r="F18">
-        <v>3.347004427387674</v>
+        <v>0.8584446037975368</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2880260375806643</v>
       </c>
       <c r="J18">
-        <v>0.1014333757418839</v>
+        <v>0.2490428645766656</v>
       </c>
       <c r="K18">
-        <v>1.112884916191078</v>
+        <v>1.522660519514488</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9659204503588157</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.498682300034261</v>
+        <v>0.6434180174274609</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.737775403943999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.956627127082186</v>
+        <v>1.342472254001081</v>
       </c>
       <c r="C19">
-        <v>0.9407161039030427</v>
+        <v>0.2409007539583286</v>
       </c>
       <c r="D19">
-        <v>0.004712219612381219</v>
+        <v>0.3015843087911065</v>
       </c>
       <c r="E19">
-        <v>0.04029402915056757</v>
+        <v>0.2371268816846381</v>
       </c>
       <c r="F19">
-        <v>3.325059852221784</v>
+        <v>0.854769197141394</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2879396945660666</v>
       </c>
       <c r="J19">
-        <v>0.1009508781877884</v>
+        <v>0.2471110336517057</v>
       </c>
       <c r="K19">
-        <v>1.102574031765826</v>
+        <v>1.509439036449692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9573099714722986</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.499347570341214</v>
+        <v>0.6463039472021848</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.732992863171802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.122552299265692</v>
+        <v>1.395402573569527</v>
       </c>
       <c r="C20">
-        <v>0.9812199653292168</v>
+        <v>0.2503900751890313</v>
       </c>
       <c r="D20">
-        <v>0.004871933876642309</v>
+        <v>0.3127209958022945</v>
       </c>
       <c r="E20">
-        <v>0.04115122327079668</v>
+        <v>0.2456743764414782</v>
       </c>
       <c r="F20">
-        <v>3.424466495912981</v>
+        <v>0.8714276874933375</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.288380054883671</v>
       </c>
       <c r="J20">
-        <v>0.1031385291392652</v>
+        <v>0.255828210869069</v>
       </c>
       <c r="K20">
-        <v>1.149152643934471</v>
+        <v>1.568974677541263</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9962113236132168</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.49657508273782</v>
+        <v>0.6333949324712993</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.754798884814932</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.692152543936686</v>
+        <v>1.573861522930343</v>
       </c>
       <c r="C21">
-        <v>1.120377380309321</v>
+        <v>0.2824102832515791</v>
       </c>
       <c r="D21">
-        <v>0.005433797080817371</v>
+        <v>0.3504335036052026</v>
       </c>
       <c r="E21">
-        <v>0.04411924754024277</v>
+        <v>0.2747246223699307</v>
       </c>
       <c r="F21">
-        <v>3.770853281803198</v>
+        <v>0.9295673091866234</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2907995310826443</v>
       </c>
       <c r="J21">
-        <v>0.110796199905316</v>
+        <v>0.285556740166669</v>
       </c>
       <c r="K21">
-        <v>1.309081894301144</v>
+        <v>1.769734917662731</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.129849463699394</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.491385944767472</v>
+        <v>0.5914219226838977</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.833242166789034</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.074861775700867</v>
+        <v>1.691033912187294</v>
       </c>
       <c r="C22">
-        <v>1.213986291751837</v>
+        <v>0.3034576366370345</v>
       </c>
       <c r="D22">
-        <v>0.005823758134702928</v>
+        <v>0.3753228120638994</v>
       </c>
       <c r="E22">
-        <v>0.04613168458672057</v>
+        <v>0.2939819800471852</v>
       </c>
       <c r="F22">
-        <v>4.007730478133823</v>
+        <v>0.9692966734465358</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2931232325374502</v>
       </c>
       <c r="J22">
-        <v>0.1160578891607145</v>
+        <v>0.3053453392047061</v>
       </c>
       <c r="K22">
-        <v>1.416567242346929</v>
+        <v>1.901578014254085</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.219709712738364</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.491403033875301</v>
+        <v>0.565076812064925</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.888629448663409</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.869549837605689</v>
+        <v>1.628442357076295</v>
       </c>
       <c r="C23">
-        <v>1.163756164224594</v>
+        <v>0.2922120658060123</v>
       </c>
       <c r="D23">
-        <v>0.00561326906410109</v>
+        <v>0.3620152943050101</v>
       </c>
       <c r="E23">
-        <v>0.04505047337134727</v>
+        <v>0.2836775416764468</v>
       </c>
       <c r="F23">
-        <v>3.880258006927107</v>
+        <v>0.9479262770753536</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2918123166851245</v>
       </c>
       <c r="J23">
-        <v>0.1132242025171806</v>
+        <v>0.2947488329097752</v>
       </c>
       <c r="K23">
-        <v>1.358901348668255</v>
+        <v>1.831146697116708</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.171496132127118</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.491059047515591</v>
+        <v>0.5790353706413907</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.85867390521139</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.113398258540258</v>
+        <v>1.392493748166203</v>
       </c>
       <c r="C24">
-        <v>0.9789850208144628</v>
+        <v>0.2498684939464368</v>
       </c>
       <c r="D24">
-        <v>0.004863077240685243</v>
+        <v>0.3121083681489836</v>
       </c>
       <c r="E24">
-        <v>0.04110383620224312</v>
+        <v>0.2452037995813541</v>
       </c>
       <c r="F24">
-        <v>3.418963908011307</v>
+        <v>0.870505004307887</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2883524395767978</v>
       </c>
       <c r="J24">
-        <v>0.103017303109354</v>
+        <v>0.255347926873867</v>
       </c>
       <c r="K24">
-        <v>1.146582819016785</v>
+        <v>1.565702748124579</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9940647946021102</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.496712601079906</v>
+        <v>0.6340986763506855</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.753582564174906</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.333869912776322</v>
+        <v>1.139813791122378</v>
       </c>
       <c r="C25">
-        <v>0.7888033913343406</v>
+        <v>0.2045976179035875</v>
       </c>
       <c r="D25">
-        <v>0.004127672452320041</v>
+        <v>0.259173346532009</v>
       </c>
       <c r="E25">
-        <v>0.03711479275382246</v>
+        <v>0.2047165492109997</v>
       </c>
       <c r="F25">
-        <v>2.95868130978846</v>
+        <v>0.7937014849819448</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2875426882633718</v>
       </c>
       <c r="J25">
-        <v>0.0929389166802892</v>
+        <v>0.2141919245271566</v>
       </c>
       <c r="K25">
-        <v>0.9277821354029072</v>
+        <v>1.281524126416627</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8114415371887773</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.51538939793916</v>
+        <v>0.6978829437754008</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.656263105608247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9548035149301484</v>
+        <v>0.3831433893469125</v>
       </c>
       <c r="C2">
-        <v>0.1714904899180283</v>
+        <v>0.05921439310179721</v>
       </c>
       <c r="D2">
-        <v>0.2208161341330594</v>
+        <v>0.2021402031676445</v>
       </c>
       <c r="E2">
-        <v>0.175615021015858</v>
+        <v>0.1699234821612237</v>
       </c>
       <c r="F2">
-        <v>0.7421634586297969</v>
+        <v>1.364870054439962</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2891875016342524</v>
+        <v>0.6573968767895622</v>
       </c>
       <c r="J2">
-        <v>0.1848359447103931</v>
+        <v>0.1860676919038298</v>
       </c>
       <c r="K2">
-        <v>1.07349497957162</v>
+        <v>0.415350064829056</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7483494147297964</v>
+        <v>1.534556796755091</v>
       </c>
       <c r="O2">
-        <v>1.59669648659181</v>
+        <v>3.250231393374804</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8298239992023468</v>
+        <v>0.3465560993875272</v>
       </c>
       <c r="C3">
-        <v>0.1491394858536239</v>
+        <v>0.05264474798235597</v>
       </c>
       <c r="D3">
-        <v>0.1951367682238754</v>
+        <v>0.1959791953402572</v>
       </c>
       <c r="E3">
-        <v>0.156260745521827</v>
+        <v>0.1656344628849737</v>
       </c>
       <c r="F3">
-        <v>0.7100145212248492</v>
+        <v>1.366129896015003</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2915746615965951</v>
+        <v>0.662719455878154</v>
       </c>
       <c r="J3">
-        <v>0.1654361870770629</v>
+        <v>0.1820667567138514</v>
       </c>
       <c r="K3">
-        <v>0.9329789936018358</v>
+        <v>0.3741560588012192</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7846099228268173</v>
+        <v>1.550230229227868</v>
       </c>
       <c r="O3">
-        <v>1.563085860047764</v>
+        <v>3.265215660861841</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7532121784362289</v>
+        <v>0.3241472087435397</v>
       </c>
       <c r="C4">
-        <v>0.1354418869834007</v>
+        <v>0.04861178352794582</v>
       </c>
       <c r="D4">
-        <v>0.1795038939382323</v>
+        <v>0.192281238154635</v>
       </c>
       <c r="E4">
-        <v>0.144536060384965</v>
+        <v>0.1630856878434663</v>
       </c>
       <c r="F4">
-        <v>0.6915387480952688</v>
+        <v>1.367601088904379</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2936292187948197</v>
+        <v>0.6663089519006178</v>
       </c>
       <c r="J4">
-        <v>0.1537396067453685</v>
+        <v>0.1797137774834923</v>
       </c>
       <c r="K4">
-        <v>0.8468457244845524</v>
+        <v>0.3489117275351248</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8078504311327865</v>
+        <v>1.560356193174051</v>
       </c>
       <c r="O4">
-        <v>1.54554120679316</v>
+        <v>3.276085227157054</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7220142561562852</v>
+        <v>0.3150300246387019</v>
       </c>
       <c r="C5">
-        <v>0.129864344647487</v>
+        <v>0.04696859921637042</v>
       </c>
       <c r="D5">
-        <v>0.1731642604246986</v>
+        <v>0.1907957639144371</v>
       </c>
       <c r="E5">
-        <v>0.1397950071925003</v>
+        <v>0.1620683984033526</v>
       </c>
       <c r="F5">
-        <v>0.6843125763844498</v>
+        <v>1.368376165317528</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2946090434595092</v>
+        <v>0.6678525299136631</v>
       </c>
       <c r="J5">
-        <v>0.1490231663718831</v>
+        <v>0.1787810027246977</v>
       </c>
       <c r="K5">
-        <v>0.81177045781277</v>
+        <v>0.3386373740623014</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8175609974466909</v>
+        <v>1.564608957767437</v>
       </c>
       <c r="O5">
-        <v>1.53913536511206</v>
+        <v>3.280934500691316</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.716834921412385</v>
+        <v>0.3135170231807365</v>
       </c>
       <c r="C6">
-        <v>0.1289383982331884</v>
+        <v>0.04669576890003668</v>
       </c>
       <c r="D6">
-        <v>0.1721133527656065</v>
+        <v>0.1905504024505404</v>
       </c>
       <c r="E6">
-        <v>0.139009896535331</v>
+        <v>0.1619007699043777</v>
       </c>
       <c r="F6">
-        <v>0.6831305440994058</v>
+        <v>1.368515472839874</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2947801978949869</v>
+        <v>0.6681137219910909</v>
       </c>
       <c r="J6">
-        <v>0.1482429111505112</v>
+        <v>0.1786276924287975</v>
       </c>
       <c r="K6">
-        <v>0.8059474066505743</v>
+        <v>0.3369321234719109</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8191877567621404</v>
+        <v>1.565322757961491</v>
       </c>
       <c r="O6">
-        <v>1.538115639800779</v>
+        <v>3.281765079315562</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7527913556339172</v>
+        <v>0.3240241912481281</v>
       </c>
       <c r="C7">
-        <v>0.1353666515397975</v>
+        <v>0.04858962173145187</v>
       </c>
       <c r="D7">
-        <v>0.1794182740788557</v>
+        <v>0.1922611174283162</v>
       </c>
       <c r="E7">
-        <v>0.1444719756774724</v>
+        <v>0.1630718817703922</v>
       </c>
       <c r="F7">
-        <v>0.6914400864037873</v>
+        <v>1.367610830882128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2936418628454227</v>
+        <v>0.6663294418489798</v>
       </c>
       <c r="J7">
-        <v>0.1536758018868412</v>
+        <v>0.1797010921068676</v>
       </c>
       <c r="K7">
-        <v>0.8463726017454292</v>
+        <v>0.3487731109090646</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8079804272762985</v>
+        <v>1.560413035827869</v>
       </c>
       <c r="O7">
-        <v>1.545451847582456</v>
+        <v>3.27614892610562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9116783701102236</v>
+        <v>0.3705168334956852</v>
       </c>
       <c r="C8">
-        <v>0.1637770965071041</v>
+        <v>0.05694905091368696</v>
       </c>
       <c r="D8">
-        <v>0.211932208178041</v>
+        <v>0.1999983296303043</v>
       </c>
       <c r="E8">
-        <v>0.1689067596849583</v>
+        <v>0.1684270822682592</v>
       </c>
       <c r="F8">
-        <v>0.7308069862343913</v>
+        <v>1.3651597232532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2898850017164811</v>
+        <v>0.659165397797068</v>
       </c>
       <c r="J8">
-        <v>0.1780997983021635</v>
+        <v>0.1846666810162034</v>
       </c>
       <c r="K8">
-        <v>1.025007999528327</v>
+        <v>0.4011365619078617</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7606459059171353</v>
+        <v>1.53985673146763</v>
       </c>
       <c r="O8">
-        <v>1.584444831903852</v>
+        <v>3.255051596255242</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.22473430325033</v>
+        <v>0.4621111582371498</v>
       </c>
       <c r="C9">
-        <v>0.2198044405544692</v>
+        <v>0.07334594469617173</v>
       </c>
       <c r="D9">
-        <v>0.2768987012890136</v>
+        <v>0.2158405835517527</v>
       </c>
       <c r="E9">
-        <v>0.2182342447274408</v>
+        <v>0.1795988105055173</v>
       </c>
       <c r="F9">
-        <v>0.8187458416028619</v>
+        <v>1.365884641427115</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2874498673331729</v>
+        <v>0.6476667727050653</v>
       </c>
       <c r="J9">
-        <v>0.2278949251509488</v>
+        <v>0.1952257254456242</v>
       </c>
       <c r="K9">
-        <v>1.377021796137058</v>
+        <v>0.5041879994405747</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.675835517673681</v>
+        <v>1.503531009705364</v>
       </c>
       <c r="O9">
-        <v>1.687058226760172</v>
+        <v>3.226921202591512</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456365292075446</v>
+        <v>0.5296417641425535</v>
       </c>
       <c r="C10">
-        <v>0.2613237280859977</v>
+        <v>0.0853930995506289</v>
       </c>
       <c r="D10">
-        <v>0.3255760586493324</v>
+        <v>0.2278837548161476</v>
       </c>
       <c r="E10">
-        <v>0.2555587410206641</v>
+        <v>0.1882137977710556</v>
       </c>
       <c r="F10">
-        <v>0.8909535431644997</v>
+        <v>1.369786322194997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2890480596856193</v>
+        <v>0.6407732323686801</v>
       </c>
       <c r="J10">
-        <v>0.2659261006936333</v>
+        <v>0.2034846020251138</v>
       </c>
       <c r="K10">
-        <v>1.637550139055605</v>
+        <v>0.5801020371216907</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.618794177144304</v>
+        <v>1.479269346664783</v>
       </c>
       <c r="O10">
-        <v>1.780760057873238</v>
+        <v>3.214325847329945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.562267847272295</v>
+        <v>0.5604103722753564</v>
       </c>
       <c r="C11">
-        <v>0.2803287899038196</v>
+        <v>0.09087335768853677</v>
       </c>
       <c r="D11">
-        <v>0.3479761559543846</v>
+        <v>0.2334493591923348</v>
       </c>
       <c r="E11">
-        <v>0.2728269038600359</v>
+        <v>0.1922211330145061</v>
       </c>
       <c r="F11">
-        <v>0.9257014557067009</v>
+        <v>1.372292362265995</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2906003719014691</v>
+        <v>0.6379747378997678</v>
       </c>
       <c r="J11">
-        <v>0.2836101003606046</v>
+        <v>0.2073507274518249</v>
       </c>
       <c r="K11">
-        <v>1.756690898621628</v>
+        <v>0.6146770701681419</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5940793065985268</v>
+        <v>1.468758513699443</v>
       </c>
       <c r="O11">
-        <v>1.82792457223772</v>
+        <v>3.210348869711112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.602462047397069</v>
+        <v>0.5720681318272511</v>
       </c>
       <c r="C12">
-        <v>0.2875459283434338</v>
+        <v>0.09294852142048171</v>
       </c>
       <c r="D12">
-        <v>0.3564997308847637</v>
+        <v>0.2355693324520587</v>
       </c>
       <c r="E12">
-        <v>0.2794121307471613</v>
+        <v>0.1937512639850851</v>
       </c>
       <c r="F12">
-        <v>0.9391549123977541</v>
+        <v>1.373346389085171</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2913148709051683</v>
+        <v>0.6369635425223699</v>
       </c>
       <c r="J12">
-        <v>0.2903677598070118</v>
+        <v>0.208830405964477</v>
       </c>
       <c r="K12">
-        <v>1.801914255675257</v>
+        <v>0.6277751624272128</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5849060253569878</v>
+        <v>1.464853953951687</v>
       </c>
       <c r="O12">
-        <v>1.846487219260496</v>
+        <v>3.209094898844455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.59380120673967</v>
+        <v>0.5695571521413854</v>
       </c>
       <c r="C13">
-        <v>0.2859906270354315</v>
+        <v>0.09250160316148026</v>
       </c>
       <c r="D13">
-        <v>0.3546621257739133</v>
+        <v>0.2351122088107473</v>
       </c>
       <c r="E13">
-        <v>0.2779917555543463</v>
+        <v>0.1934211617279828</v>
       </c>
       <c r="F13">
-        <v>0.9362439769807196</v>
+        <v>1.373114715202135</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2911552240766255</v>
+        <v>0.6371791627589971</v>
       </c>
       <c r="J13">
-        <v>0.2889095593531437</v>
+        <v>0.2085110347021129</v>
       </c>
       <c r="K13">
-        <v>1.792169531227927</v>
+        <v>0.6249540298429963</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5868732580991498</v>
+        <v>1.465691504918935</v>
       </c>
       <c r="O13">
-        <v>1.842457350575529</v>
+        <v>3.209353755284241</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565572732930661</v>
+        <v>0.5613693394224697</v>
       </c>
       <c r="C14">
-        <v>0.2809221202578556</v>
+        <v>0.09104408496011729</v>
       </c>
       <c r="D14">
-        <v>0.3486765456023733</v>
+        <v>0.2336235228832351</v>
       </c>
       <c r="E14">
-        <v>0.2733677222028561</v>
+        <v>0.1923467648424051</v>
       </c>
       <c r="F14">
-        <v>0.9268022331286545</v>
+        <v>1.372376972992726</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2906565678085755</v>
+        <v>0.6378905734765432</v>
       </c>
       <c r="J14">
-        <v>0.2841647965816918</v>
+        <v>0.207472147807195</v>
       </c>
       <c r="K14">
-        <v>1.760409195740891</v>
+        <v>0.6157545561658253</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5933208438611661</v>
+        <v>1.468435766561035</v>
       </c>
       <c r="O14">
-        <v>1.829437356970914</v>
+        <v>3.21024065391228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.548294306933087</v>
+        <v>0.556354876594213</v>
       </c>
       <c r="C15">
-        <v>0.2778202671452448</v>
+        <v>0.09015129863738025</v>
       </c>
       <c r="D15">
-        <v>0.345015694303811</v>
+        <v>0.2327132708263804</v>
       </c>
       <c r="E15">
-        <v>0.270541519422089</v>
+        <v>0.1916903099842813</v>
       </c>
       <c r="F15">
-        <v>0.9210580085994877</v>
+        <v>1.371938761593668</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2903678690828606</v>
+        <v>0.6383326540356435</v>
       </c>
       <c r="J15">
-        <v>0.2812666354295175</v>
+        <v>0.2068378381537741</v>
       </c>
       <c r="K15">
-        <v>1.740969591201406</v>
+        <v>0.6101202803372132</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5972946166074369</v>
+        <v>1.470126560991538</v>
       </c>
       <c r="O15">
-        <v>1.821555250625181</v>
+        <v>3.210816725511506</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449456252754743</v>
+        <v>0.5276318870482157</v>
       </c>
       <c r="C16">
-        <v>0.2600843567174138</v>
+        <v>0.08503494359362662</v>
       </c>
       <c r="D16">
-        <v>0.3241176789519074</v>
+        <v>0.2275217715032625</v>
       </c>
       <c r="E16">
-        <v>0.2544364272934203</v>
+        <v>0.1879536811858387</v>
       </c>
       <c r="F16">
-        <v>0.8887227645127922</v>
+        <v>1.369637251080519</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2889638912357135</v>
+        <v>0.6409629113745332</v>
       </c>
       <c r="J16">
-        <v>0.2647786268718164</v>
+        <v>0.2032341348127034</v>
       </c>
       <c r="K16">
-        <v>1.629778051781443</v>
+        <v>0.5778432523850938</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6204348733227647</v>
+        <v>1.479966840348682</v>
       </c>
       <c r="O16">
-        <v>1.777773262209394</v>
+        <v>3.214621020069899</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388968770565157</v>
+        <v>0.5100232599679657</v>
       </c>
       <c r="C17">
-        <v>0.2492364444532882</v>
+        <v>0.0818961525515931</v>
       </c>
       <c r="D17">
-        <v>0.3113660655978379</v>
+        <v>0.2243591750663825</v>
       </c>
       <c r="E17">
-        <v>0.2446336745798163</v>
+        <v>0.185683960796851</v>
       </c>
       <c r="F17">
-        <v>0.8693879889101055</v>
+        <v>1.368412546196552</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2883195017854732</v>
+        <v>0.6426629184692771</v>
       </c>
       <c r="J17">
-        <v>0.2547660977674013</v>
+        <v>0.2010513063256667</v>
       </c>
       <c r="K17">
-        <v>1.561737769591559</v>
+        <v>0.5580524574237131</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6349523644919994</v>
+        <v>1.486138259767502</v>
       </c>
       <c r="O17">
-        <v>1.752111372592708</v>
+        <v>3.217403733728759</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354227151491699</v>
+        <v>0.4998998553976719</v>
       </c>
       <c r="C18">
-        <v>0.2430078745864108</v>
+        <v>0.08009080296342574</v>
       </c>
       <c r="D18">
-        <v>0.3040555488807968</v>
+        <v>0.2225483395651935</v>
       </c>
       <c r="E18">
-        <v>0.2390223063511172</v>
+        <v>0.1843867958557368</v>
       </c>
       <c r="F18">
-        <v>0.8584446037975368</v>
+        <v>1.367776952909892</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2880260375806643</v>
+        <v>0.6436724754995673</v>
       </c>
       <c r="J18">
-        <v>0.2490428645766656</v>
+        <v>0.1998060739735337</v>
       </c>
       <c r="K18">
-        <v>1.522660519514488</v>
+        <v>0.5466732483195358</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6434180174274609</v>
+        <v>1.48973739654974</v>
       </c>
       <c r="O18">
-        <v>1.737775403943999</v>
+        <v>3.219169251472664</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.342472254001081</v>
+        <v>0.4964730559453585</v>
       </c>
       <c r="C19">
-        <v>0.2409007539583286</v>
+        <v>0.07947954515536537</v>
       </c>
       <c r="D19">
-        <v>0.3015843087911065</v>
+        <v>0.221936635055684</v>
       </c>
       <c r="E19">
-        <v>0.2371268816846381</v>
+        <v>0.1839490286439016</v>
       </c>
       <c r="F19">
-        <v>0.854769197141394</v>
+        <v>1.36757357548899</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2879396945660666</v>
+        <v>0.6440197481799288</v>
       </c>
       <c r="J19">
-        <v>0.2471110336517057</v>
+        <v>0.1993862249973688</v>
       </c>
       <c r="K19">
-        <v>1.509439036449692</v>
+        <v>0.5428211394769562</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6463039472021848</v>
+        <v>1.490964502906575</v>
       </c>
       <c r="O19">
-        <v>1.732992863171802</v>
+        <v>3.219795360381511</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.395402573569527</v>
+        <v>0.5118972556392407</v>
       </c>
       <c r="C20">
-        <v>0.2503900751890313</v>
+        <v>0.08223028282016287</v>
       </c>
       <c r="D20">
-        <v>0.3127209958022945</v>
+        <v>0.2246949904443341</v>
       </c>
       <c r="E20">
-        <v>0.2456743764414782</v>
+        <v>0.1859247159554513</v>
       </c>
       <c r="F20">
-        <v>0.8714276874933375</v>
+        <v>1.368535795716113</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.288380054883671</v>
+        <v>0.6424786628826098</v>
       </c>
       <c r="J20">
-        <v>0.255828210869069</v>
+        <v>0.2012826091638971</v>
       </c>
       <c r="K20">
-        <v>1.568974677541263</v>
+        <v>0.560158819159625</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6333949324712993</v>
+        <v>1.485476178347271</v>
       </c>
       <c r="O20">
-        <v>1.754798884814932</v>
+        <v>3.217090434967503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.573861522930343</v>
+        <v>0.5637741310534921</v>
       </c>
       <c r="C21">
-        <v>0.2824102832515791</v>
+        <v>0.09147219652447802</v>
       </c>
       <c r="D21">
-        <v>0.3504335036052026</v>
+        <v>0.2340604505088208</v>
       </c>
       <c r="E21">
-        <v>0.2747246223699307</v>
+        <v>0.1926619987016736</v>
       </c>
       <c r="F21">
-        <v>0.9295673091866234</v>
+        <v>1.37259081565594</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2907995310826443</v>
+        <v>0.6376802975974343</v>
       </c>
       <c r="J21">
-        <v>0.285556740166669</v>
+        <v>0.2077768692911377</v>
       </c>
       <c r="K21">
-        <v>1.769734917662731</v>
+        <v>0.6184565266870266</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5914219226838977</v>
+        <v>1.467627656563643</v>
       </c>
       <c r="O21">
-        <v>1.833242166789034</v>
+        <v>3.209973310532632</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.691033912187294</v>
+        <v>0.5977154184745643</v>
       </c>
       <c r="C22">
-        <v>0.3034576366370345</v>
+        <v>0.09751175168457848</v>
       </c>
       <c r="D22">
-        <v>0.3753228120638994</v>
+        <v>0.240253536143598</v>
       </c>
       <c r="E22">
-        <v>0.2939819800471852</v>
+        <v>0.1971388493435384</v>
       </c>
       <c r="F22">
-        <v>0.9692966734465358</v>
+        <v>1.375853237375324</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2931232325374502</v>
+        <v>0.6348271869941762</v>
       </c>
       <c r="J22">
-        <v>0.3053453392047061</v>
+        <v>0.2121125117478755</v>
       </c>
       <c r="K22">
-        <v>1.901578014254085</v>
+        <v>0.656587899714367</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.565076812064925</v>
+        <v>1.45640366638146</v>
       </c>
       <c r="O22">
-        <v>1.888629448663409</v>
+        <v>3.206790841747477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.628442357076295</v>
+        <v>0.5795971610612867</v>
       </c>
       <c r="C23">
-        <v>0.2922120658060123</v>
+        <v>0.09428840715474962</v>
       </c>
       <c r="D23">
-        <v>0.3620152943050101</v>
+        <v>0.2369416037177388</v>
       </c>
       <c r="E23">
-        <v>0.2836775416764468</v>
+        <v>0.1947427518873752</v>
       </c>
       <c r="F23">
-        <v>0.9479262770753536</v>
+        <v>1.374056033488856</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2918123166851245</v>
+        <v>0.6363240558295686</v>
       </c>
       <c r="J23">
-        <v>0.2947488329097752</v>
+        <v>0.2097901570262621</v>
       </c>
       <c r="K23">
-        <v>1.831146697116708</v>
+        <v>0.6362339033012745</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5790353706413907</v>
+        <v>1.462353751773636</v>
       </c>
       <c r="O23">
-        <v>1.85867390521139</v>
+        <v>3.208354977809051</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.392493748166203</v>
+        <v>0.5110500220557697</v>
       </c>
       <c r="C24">
-        <v>0.2498684939464368</v>
+        <v>0.08207922506305465</v>
       </c>
       <c r="D24">
-        <v>0.3121083681489836</v>
+        <v>0.2245431453047928</v>
       </c>
       <c r="E24">
-        <v>0.2452037995813541</v>
+        <v>0.1858158464737869</v>
       </c>
       <c r="F24">
-        <v>0.870505004307887</v>
+        <v>1.368479861209806</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2883524395767978</v>
+        <v>0.6425618645320554</v>
       </c>
       <c r="J24">
-        <v>0.255347926873867</v>
+        <v>0.2011780069197187</v>
       </c>
       <c r="K24">
-        <v>1.565702748124579</v>
+        <v>0.5592065367606551</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6340986763506855</v>
+        <v>1.485775346167769</v>
       </c>
       <c r="O24">
-        <v>1.753582564174906</v>
+        <v>3.217231561193273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139813791122378</v>
+        <v>0.4372894424898277</v>
       </c>
       <c r="C25">
-        <v>0.2045976179035875</v>
+        <v>0.06890993377530208</v>
       </c>
       <c r="D25">
-        <v>0.259173346532009</v>
+        <v>0.2114835960723127</v>
       </c>
       <c r="E25">
-        <v>0.2047165492109997</v>
+        <v>0.1765049615753043</v>
       </c>
       <c r="F25">
-        <v>0.7937014849819448</v>
+        <v>1.365096661230716</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2875426882633718</v>
+        <v>0.6505044641944728</v>
       </c>
       <c r="J25">
-        <v>0.2141919245271566</v>
+        <v>0.1922812386366246</v>
       </c>
       <c r="K25">
-        <v>1.281524126416627</v>
+        <v>0.4762728017315396</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6978829437754008</v>
+        <v>1.512931723578497</v>
       </c>
       <c r="O25">
-        <v>1.656263105608247</v>
+        <v>3.233113664549563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3831433893469125</v>
+        <v>0.9548035149302621</v>
       </c>
       <c r="C2">
-        <v>0.05921439310179721</v>
+        <v>0.171490489917872</v>
       </c>
       <c r="D2">
-        <v>0.2021402031676445</v>
+        <v>0.2208161341332442</v>
       </c>
       <c r="E2">
-        <v>0.1699234821612237</v>
+        <v>0.1756150210158864</v>
       </c>
       <c r="F2">
-        <v>1.364870054439962</v>
+        <v>0.7421634586297969</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6573968767895622</v>
+        <v>0.2891875016342631</v>
       </c>
       <c r="J2">
-        <v>0.1860676919038298</v>
+        <v>0.1848359447104002</v>
       </c>
       <c r="K2">
-        <v>0.415350064829056</v>
+        <v>1.073494979571649</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.534556796755091</v>
+        <v>0.7483494147297325</v>
       </c>
       <c r="O2">
-        <v>3.250231393374804</v>
+        <v>1.59669648659181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3465560993875272</v>
+        <v>0.8298239992023184</v>
       </c>
       <c r="C3">
-        <v>0.05264474798235597</v>
+        <v>0.1491394858539223</v>
       </c>
       <c r="D3">
-        <v>0.1959791953402572</v>
+        <v>0.1951367682238896</v>
       </c>
       <c r="E3">
-        <v>0.1656344628849737</v>
+        <v>0.1562607455217915</v>
       </c>
       <c r="F3">
-        <v>1.366129896015003</v>
+        <v>0.7100145212248492</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.662719455878154</v>
+        <v>0.2915746615966022</v>
       </c>
       <c r="J3">
-        <v>0.1820667567138514</v>
+        <v>0.1654361870770771</v>
       </c>
       <c r="K3">
-        <v>0.3741560588012192</v>
+        <v>0.9329789936018074</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.550230229227868</v>
+        <v>0.7846099228268368</v>
       </c>
       <c r="O3">
-        <v>3.265215660861841</v>
+        <v>1.563085860047863</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3241472087435397</v>
+        <v>0.7532121784362573</v>
       </c>
       <c r="C4">
-        <v>0.04861178352794582</v>
+        <v>0.1354418869830027</v>
       </c>
       <c r="D4">
-        <v>0.192281238154635</v>
+        <v>0.1795038939381044</v>
       </c>
       <c r="E4">
-        <v>0.1630856878434663</v>
+        <v>0.1445360603849899</v>
       </c>
       <c r="F4">
-        <v>1.367601088904379</v>
+        <v>0.6915387480952617</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6663089519006178</v>
+        <v>0.2936292187948162</v>
       </c>
       <c r="J4">
-        <v>0.1797137774834923</v>
+        <v>0.1537396067454395</v>
       </c>
       <c r="K4">
-        <v>0.3489117275351248</v>
+        <v>0.8468457244845524</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.560356193174051</v>
+        <v>0.8078504311328292</v>
       </c>
       <c r="O4">
-        <v>3.276085227157054</v>
+        <v>1.545541206793146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3150300246387019</v>
+        <v>0.7220142561562852</v>
       </c>
       <c r="C5">
-        <v>0.04696859921637042</v>
+        <v>0.1298643446477854</v>
       </c>
       <c r="D5">
-        <v>0.1907957639144371</v>
+        <v>0.1731642604245422</v>
       </c>
       <c r="E5">
-        <v>0.1620683984033526</v>
+        <v>0.1397950071925322</v>
       </c>
       <c r="F5">
-        <v>1.368376165317528</v>
+        <v>0.6843125763844355</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6678525299136631</v>
+        <v>0.2946090434595163</v>
       </c>
       <c r="J5">
-        <v>0.1787810027246977</v>
+        <v>0.1490231663719115</v>
       </c>
       <c r="K5">
-        <v>0.3386373740623014</v>
+        <v>0.81177045781277</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.564608957767437</v>
+        <v>0.8175609974466838</v>
       </c>
       <c r="O5">
-        <v>3.280934500691316</v>
+        <v>1.539135365112045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3135170231807365</v>
+        <v>0.716834921412385</v>
       </c>
       <c r="C6">
-        <v>0.04669576890003668</v>
+        <v>0.12893839823316</v>
       </c>
       <c r="D6">
-        <v>0.1905504024505404</v>
+        <v>0.1721133527657202</v>
       </c>
       <c r="E6">
-        <v>0.1619007699043777</v>
+        <v>0.1390098965353239</v>
       </c>
       <c r="F6">
-        <v>1.368515472839874</v>
+        <v>0.6831305440994058</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6681137219910909</v>
+        <v>0.2947801978949869</v>
       </c>
       <c r="J6">
-        <v>0.1786276924287975</v>
+        <v>0.1482429111504686</v>
       </c>
       <c r="K6">
-        <v>0.3369321234719109</v>
+        <v>0.8059474066505743</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.565322757961491</v>
+        <v>0.8191877567621368</v>
       </c>
       <c r="O6">
-        <v>3.281765079315562</v>
+        <v>1.53811563980085</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3240241912481281</v>
+        <v>0.7527913556340309</v>
       </c>
       <c r="C7">
-        <v>0.04858962173145187</v>
+        <v>0.1353666515395417</v>
       </c>
       <c r="D7">
-        <v>0.1922611174283162</v>
+        <v>0.1794182740790262</v>
       </c>
       <c r="E7">
-        <v>0.1630718817703922</v>
+        <v>0.1444719756774688</v>
       </c>
       <c r="F7">
-        <v>1.367610830882128</v>
+        <v>0.6914400864037802</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6663294418489798</v>
+        <v>0.2936418628454298</v>
       </c>
       <c r="J7">
-        <v>0.1797010921068676</v>
+        <v>0.1536758018868056</v>
       </c>
       <c r="K7">
-        <v>0.3487731109090646</v>
+        <v>0.8463726017455144</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.560413035827869</v>
+        <v>0.8079804272762896</v>
       </c>
       <c r="O7">
-        <v>3.27614892610562</v>
+        <v>1.545451847582584</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3705168334956852</v>
+        <v>0.9116783701101951</v>
       </c>
       <c r="C8">
-        <v>0.05694905091368696</v>
+        <v>0.163777096506621</v>
       </c>
       <c r="D8">
-        <v>0.1999983296303043</v>
+        <v>0.2119322081779558</v>
       </c>
       <c r="E8">
-        <v>0.1684270822682592</v>
+        <v>0.1689067596849867</v>
       </c>
       <c r="F8">
-        <v>1.3651597232532</v>
+        <v>0.7308069862343913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.659165397797068</v>
+        <v>0.2898850017164811</v>
       </c>
       <c r="J8">
-        <v>0.1846666810162034</v>
+        <v>0.1780997983020995</v>
       </c>
       <c r="K8">
-        <v>0.4011365619078617</v>
+        <v>1.025007999528242</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.53985673146763</v>
+        <v>0.7606459059171318</v>
       </c>
       <c r="O8">
-        <v>3.255051596255242</v>
+        <v>1.584444831903795</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4621111582371498</v>
+        <v>1.224734303250415</v>
       </c>
       <c r="C9">
-        <v>0.07334594469617173</v>
+        <v>0.2198044405543271</v>
       </c>
       <c r="D9">
-        <v>0.2158405835517527</v>
+        <v>0.2768987012890705</v>
       </c>
       <c r="E9">
-        <v>0.1795988105055173</v>
+        <v>0.2182342447274124</v>
       </c>
       <c r="F9">
-        <v>1.365884641427115</v>
+        <v>0.8187458416028619</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6476667727050653</v>
+        <v>0.2874498673331694</v>
       </c>
       <c r="J9">
-        <v>0.1952257254456242</v>
+        <v>0.227894925150963</v>
       </c>
       <c r="K9">
-        <v>0.5041879994405747</v>
+        <v>1.377021796136944</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.503531009705364</v>
+        <v>0.6758355176736686</v>
       </c>
       <c r="O9">
-        <v>3.226921202591512</v>
+        <v>1.687058226760143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5296417641425535</v>
+        <v>1.456365292075503</v>
       </c>
       <c r="C10">
-        <v>0.0853930995506289</v>
+        <v>0.2613237280859408</v>
       </c>
       <c r="D10">
-        <v>0.2278837548161476</v>
+        <v>0.3255760586492187</v>
       </c>
       <c r="E10">
-        <v>0.1882137977710556</v>
+        <v>0.2555587410206499</v>
       </c>
       <c r="F10">
-        <v>1.369786322194997</v>
+        <v>0.8909535431644997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6407732323686801</v>
+        <v>0.289048059685598</v>
       </c>
       <c r="J10">
-        <v>0.2034846020251138</v>
+        <v>0.2659261006936191</v>
       </c>
       <c r="K10">
-        <v>0.5801020371216907</v>
+        <v>1.637550139055577</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.479269346664783</v>
+        <v>0.6187941771442862</v>
       </c>
       <c r="O10">
-        <v>3.214325847329945</v>
+        <v>1.780760057873266</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5604103722753564</v>
+        <v>1.562267847272267</v>
       </c>
       <c r="C11">
-        <v>0.09087335768853677</v>
+        <v>0.2803287899039049</v>
       </c>
       <c r="D11">
-        <v>0.2334493591923348</v>
+        <v>0.3479761559543846</v>
       </c>
       <c r="E11">
-        <v>0.1922211330145061</v>
+        <v>0.2728269038599933</v>
       </c>
       <c r="F11">
-        <v>1.372292362265995</v>
+        <v>0.9257014557067009</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6379747378997678</v>
+        <v>0.2906003719014834</v>
       </c>
       <c r="J11">
-        <v>0.2073507274518249</v>
+        <v>0.2836101003604909</v>
       </c>
       <c r="K11">
-        <v>0.6146770701681419</v>
+        <v>1.756690898621514</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.468758513699443</v>
+        <v>0.594079306598589</v>
       </c>
       <c r="O11">
-        <v>3.210348869711112</v>
+        <v>1.827924572237663</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5720681318272511</v>
+        <v>1.602462047397296</v>
       </c>
       <c r="C12">
-        <v>0.09294852142048171</v>
+        <v>0.287545928343576</v>
       </c>
       <c r="D12">
-        <v>0.2355693324520587</v>
+        <v>0.3564997308847779</v>
       </c>
       <c r="E12">
-        <v>0.1937512639850851</v>
+        <v>0.27941213074714</v>
       </c>
       <c r="F12">
-        <v>1.373346389085171</v>
+        <v>0.9391549123977825</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6369635425223699</v>
+        <v>0.2913148709051789</v>
       </c>
       <c r="J12">
-        <v>0.208830405964477</v>
+        <v>0.2903677598069976</v>
       </c>
       <c r="K12">
-        <v>0.6277751624272128</v>
+        <v>1.801914255675285</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.464853953951687</v>
+        <v>0.584906025356986</v>
       </c>
       <c r="O12">
-        <v>3.209094898844455</v>
+        <v>1.846487219260581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5695571521413854</v>
+        <v>1.593801206739556</v>
       </c>
       <c r="C13">
-        <v>0.09250160316148026</v>
+        <v>0.2859906270354315</v>
       </c>
       <c r="D13">
-        <v>0.2351122088107473</v>
+        <v>0.3546621257739133</v>
       </c>
       <c r="E13">
-        <v>0.1934211617279828</v>
+        <v>0.2779917555543321</v>
       </c>
       <c r="F13">
-        <v>1.373114715202135</v>
+        <v>0.9362439769807196</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6371791627589971</v>
+        <v>0.291155224076622</v>
       </c>
       <c r="J13">
-        <v>0.2085110347021129</v>
+        <v>0.288909559353101</v>
       </c>
       <c r="K13">
-        <v>0.6249540298429963</v>
+        <v>1.792169531227898</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.465691504918935</v>
+        <v>0.5868732580991569</v>
       </c>
       <c r="O13">
-        <v>3.209353755284241</v>
+        <v>1.842457350575557</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5613693394224697</v>
+        <v>1.565572732930633</v>
       </c>
       <c r="C14">
-        <v>0.09104408496011729</v>
+        <v>0.2809221202576282</v>
       </c>
       <c r="D14">
-        <v>0.2336235228832351</v>
+        <v>0.3486765456021175</v>
       </c>
       <c r="E14">
-        <v>0.1923467648424051</v>
+        <v>0.2733677222028561</v>
       </c>
       <c r="F14">
-        <v>1.372376972992726</v>
+        <v>0.9268022331286545</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6378905734765432</v>
+        <v>0.290656567808572</v>
       </c>
       <c r="J14">
-        <v>0.207472147807195</v>
+        <v>0.284164796581706</v>
       </c>
       <c r="K14">
-        <v>0.6157545561658253</v>
+        <v>1.760409195740863</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.468435766561035</v>
+        <v>0.5933208438611004</v>
       </c>
       <c r="O14">
-        <v>3.21024065391228</v>
+        <v>1.829437356970942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.556354876594213</v>
+        <v>1.548294306933229</v>
       </c>
       <c r="C15">
-        <v>0.09015129863738025</v>
+        <v>0.2778202671453585</v>
       </c>
       <c r="D15">
-        <v>0.2327132708263804</v>
+        <v>0.345015694303811</v>
       </c>
       <c r="E15">
-        <v>0.1916903099842813</v>
+        <v>0.270541519422089</v>
       </c>
       <c r="F15">
-        <v>1.371938761593668</v>
+        <v>0.9210580085994877</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6383326540356435</v>
+        <v>0.2903678690828464</v>
       </c>
       <c r="J15">
-        <v>0.2068378381537741</v>
+        <v>0.281266635429418</v>
       </c>
       <c r="K15">
-        <v>0.6101202803372132</v>
+        <v>1.740969591201377</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.470126560991538</v>
+        <v>0.5972946166074884</v>
       </c>
       <c r="O15">
-        <v>3.210816725511506</v>
+        <v>1.821555250625124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5276318870482157</v>
+        <v>1.449456252754743</v>
       </c>
       <c r="C16">
-        <v>0.08503494359362662</v>
+        <v>0.2600843567169306</v>
       </c>
       <c r="D16">
-        <v>0.2275217715032625</v>
+        <v>0.3241176789519074</v>
       </c>
       <c r="E16">
-        <v>0.1879536811858387</v>
+        <v>0.2544364272934203</v>
       </c>
       <c r="F16">
-        <v>1.369637251080519</v>
+        <v>0.8887227645128064</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6409629113745332</v>
+        <v>0.2889638912357242</v>
       </c>
       <c r="J16">
-        <v>0.2032341348127034</v>
+        <v>0.264778626871859</v>
       </c>
       <c r="K16">
-        <v>0.5778432523850938</v>
+        <v>1.629778051781386</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.479966840348682</v>
+        <v>0.6204348733227523</v>
       </c>
       <c r="O16">
-        <v>3.214621020069899</v>
+        <v>1.77777326220945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5100232599679657</v>
+        <v>1.388968770565157</v>
       </c>
       <c r="C17">
-        <v>0.0818961525515931</v>
+        <v>0.249236444453274</v>
       </c>
       <c r="D17">
-        <v>0.2243591750663825</v>
+        <v>0.3113660655976247</v>
       </c>
       <c r="E17">
-        <v>0.185683960796851</v>
+        <v>0.2446336745798163</v>
       </c>
       <c r="F17">
-        <v>1.368412546196552</v>
+        <v>0.8693879889100913</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6426629184692771</v>
+        <v>0.2883195017854661</v>
       </c>
       <c r="J17">
-        <v>0.2010513063256667</v>
+        <v>0.2547660977673445</v>
       </c>
       <c r="K17">
-        <v>0.5580524574237131</v>
+        <v>1.561737769591559</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.486138259767502</v>
+        <v>0.6349523644919266</v>
       </c>
       <c r="O17">
-        <v>3.217403733728759</v>
+        <v>1.752111372592651</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4998998553976719</v>
+        <v>1.354227151491699</v>
       </c>
       <c r="C18">
-        <v>0.08009080296342574</v>
+        <v>0.2430078745867803</v>
       </c>
       <c r="D18">
-        <v>0.2225483395651935</v>
+        <v>0.3040555488806262</v>
       </c>
       <c r="E18">
-        <v>0.1843867958557368</v>
+        <v>0.2390223063511172</v>
       </c>
       <c r="F18">
-        <v>1.367776952909892</v>
+        <v>0.8584446037975368</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6436724754995673</v>
+        <v>0.2880260375806678</v>
       </c>
       <c r="J18">
-        <v>0.1998060739735337</v>
+        <v>0.2490428645766656</v>
       </c>
       <c r="K18">
-        <v>0.5466732483195358</v>
+        <v>1.522660519514432</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.48973739654974</v>
+        <v>0.6434180174274555</v>
       </c>
       <c r="O18">
-        <v>3.219169251472664</v>
+        <v>1.737775403944056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4964730559453585</v>
+        <v>1.342472254001137</v>
       </c>
       <c r="C19">
-        <v>0.07947954515536537</v>
+        <v>0.2409007539582859</v>
       </c>
       <c r="D19">
-        <v>0.221936635055684</v>
+        <v>0.3015843087908792</v>
       </c>
       <c r="E19">
-        <v>0.1839490286439016</v>
+        <v>0.2371268816846523</v>
       </c>
       <c r="F19">
-        <v>1.36757357548899</v>
+        <v>0.8547691971413798</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6440197481799288</v>
+        <v>0.2879396945660631</v>
       </c>
       <c r="J19">
-        <v>0.1993862249973688</v>
+        <v>0.2471110336517484</v>
       </c>
       <c r="K19">
-        <v>0.5428211394769562</v>
+        <v>1.509439036449777</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.490964502906575</v>
+        <v>0.6463039472022327</v>
       </c>
       <c r="O19">
-        <v>3.219795360381511</v>
+        <v>1.732992863171887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5118972556392407</v>
+        <v>1.395402573569555</v>
       </c>
       <c r="C20">
-        <v>0.08223028282016287</v>
+        <v>0.2503900751888892</v>
       </c>
       <c r="D20">
-        <v>0.2246949904443341</v>
+        <v>0.3127209958024082</v>
       </c>
       <c r="E20">
-        <v>0.1859247159554513</v>
+        <v>0.2456743764414639</v>
       </c>
       <c r="F20">
-        <v>1.368535795716113</v>
+        <v>0.8714276874933233</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6424786628826098</v>
+        <v>0.2883800548836639</v>
       </c>
       <c r="J20">
-        <v>0.2012826091638971</v>
+        <v>0.255828210869069</v>
       </c>
       <c r="K20">
-        <v>0.560158819159625</v>
+        <v>1.568974677541121</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.485476178347271</v>
+        <v>0.6333949324712851</v>
       </c>
       <c r="O20">
-        <v>3.217090434967503</v>
+        <v>1.75479888481479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5637741310534921</v>
+        <v>1.5738615229304</v>
       </c>
       <c r="C21">
-        <v>0.09147219652447802</v>
+        <v>0.2824102832515791</v>
       </c>
       <c r="D21">
-        <v>0.2340604505088208</v>
+        <v>0.3504335036053732</v>
       </c>
       <c r="E21">
-        <v>0.1926619987016736</v>
+        <v>0.2747246223699094</v>
       </c>
       <c r="F21">
-        <v>1.37259081565594</v>
+        <v>0.929567309186595</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6376802975974343</v>
+        <v>0.2907995310826443</v>
       </c>
       <c r="J21">
-        <v>0.2077768692911377</v>
+        <v>0.2855567401666121</v>
       </c>
       <c r="K21">
-        <v>0.6184565266870266</v>
+        <v>1.769734917662788</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.467627656563643</v>
+        <v>0.5914219226838835</v>
       </c>
       <c r="O21">
-        <v>3.209973310532632</v>
+        <v>1.83324216678912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5977154184745643</v>
+        <v>1.691033912187265</v>
       </c>
       <c r="C22">
-        <v>0.09751175168457848</v>
+        <v>0.3034576366370345</v>
       </c>
       <c r="D22">
-        <v>0.240253536143598</v>
+        <v>0.3753228120639278</v>
       </c>
       <c r="E22">
-        <v>0.1971388493435384</v>
+        <v>0.2939819800471852</v>
       </c>
       <c r="F22">
-        <v>1.375853237375324</v>
+        <v>0.9692966734465358</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6348271869941762</v>
+        <v>0.2931232325374467</v>
       </c>
       <c r="J22">
-        <v>0.2121125117478755</v>
+        <v>0.3053453392046919</v>
       </c>
       <c r="K22">
-        <v>0.656587899714367</v>
+        <v>1.901578014254227</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.45640366638146</v>
+        <v>0.5650768120649712</v>
       </c>
       <c r="O22">
-        <v>3.206790841747477</v>
+        <v>1.888629448663409</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5795971610612867</v>
+        <v>1.628442357076437</v>
       </c>
       <c r="C23">
-        <v>0.09428840715474962</v>
+        <v>0.2922120658061829</v>
       </c>
       <c r="D23">
-        <v>0.2369416037177388</v>
+        <v>0.3620152943051238</v>
       </c>
       <c r="E23">
-        <v>0.1947427518873752</v>
+        <v>0.2836775416764397</v>
       </c>
       <c r="F23">
-        <v>1.374056033488856</v>
+        <v>0.9479262770753536</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6363240558295686</v>
+        <v>0.2918123166850997</v>
       </c>
       <c r="J23">
-        <v>0.2097901570262621</v>
+        <v>0.2947488329097325</v>
       </c>
       <c r="K23">
-        <v>0.6362339033012745</v>
+        <v>1.831146697116935</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.462353751773636</v>
+        <v>0.5790353706413889</v>
       </c>
       <c r="O23">
-        <v>3.208354977809051</v>
+        <v>1.858673905211532</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5110500220557697</v>
+        <v>1.392493748166231</v>
       </c>
       <c r="C24">
-        <v>0.08207922506305465</v>
+        <v>0.2498684939464226</v>
       </c>
       <c r="D24">
-        <v>0.2245431453047928</v>
+        <v>0.3121083681488699</v>
       </c>
       <c r="E24">
-        <v>0.1858158464737869</v>
+        <v>0.2452037995813612</v>
       </c>
       <c r="F24">
-        <v>1.368479861209806</v>
+        <v>0.870505004307887</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6425618645320554</v>
+        <v>0.2883524395767765</v>
       </c>
       <c r="J24">
-        <v>0.2011780069197187</v>
+        <v>0.2553479268738243</v>
       </c>
       <c r="K24">
-        <v>0.5592065367606551</v>
+        <v>1.565702748124636</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.485775346167769</v>
+        <v>0.6340986763506695</v>
       </c>
       <c r="O24">
-        <v>3.217231561193273</v>
+        <v>1.753582564174906</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4372894424898277</v>
+        <v>1.139813791122464</v>
       </c>
       <c r="C25">
-        <v>0.06890993377530208</v>
+        <v>0.2045976179038149</v>
       </c>
       <c r="D25">
-        <v>0.2114835960723127</v>
+        <v>0.2591733465319805</v>
       </c>
       <c r="E25">
-        <v>0.1765049615753043</v>
+        <v>0.2047165492110068</v>
       </c>
       <c r="F25">
-        <v>1.365096661230716</v>
+        <v>0.7937014849819306</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6505044641944728</v>
+        <v>0.2875426882633505</v>
       </c>
       <c r="J25">
-        <v>0.1922812386366246</v>
+        <v>0.2141919245271993</v>
       </c>
       <c r="K25">
-        <v>0.4762728017315396</v>
+        <v>1.28152412641677</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.512931723578497</v>
+        <v>0.6978829437754364</v>
       </c>
       <c r="O25">
-        <v>3.233113664549563</v>
+        <v>1.656263105608247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9548035149302621</v>
+        <v>1.053201235981419</v>
       </c>
       <c r="C2">
-        <v>0.171490489917872</v>
+        <v>0.3127545325369283</v>
       </c>
       <c r="D2">
-        <v>0.2208161341332442</v>
+        <v>0.0423571203981723</v>
       </c>
       <c r="E2">
-        <v>0.1756150210158864</v>
+        <v>0.06115343654932559</v>
       </c>
       <c r="F2">
-        <v>0.7421634586297969</v>
+        <v>1.792106638165734</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01310063296307612</v>
       </c>
       <c r="I2">
-        <v>0.2891875016342631</v>
+        <v>0.01353962962467126</v>
       </c>
       <c r="J2">
-        <v>0.1848359447104002</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>1.073494979571649</v>
+        <v>0.9069787061282568</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09895414093760735</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.347308571655532</v>
       </c>
       <c r="N2">
-        <v>0.7483494147297325</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.59669648659181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3886485511466944</v>
+      </c>
+      <c r="P2">
+        <v>1.643985384195261</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8298239992023184</v>
+        <v>0.9184200860786405</v>
       </c>
       <c r="C3">
-        <v>0.1491394858539223</v>
+        <v>0.2745102400404278</v>
       </c>
       <c r="D3">
-        <v>0.1951367682238896</v>
+        <v>0.03687389716818501</v>
       </c>
       <c r="E3">
-        <v>0.1562607455217915</v>
+        <v>0.05372935193661732</v>
       </c>
       <c r="F3">
-        <v>0.7100145212248492</v>
+        <v>1.685665209142385</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01723907476983799</v>
       </c>
       <c r="I3">
-        <v>0.2915746615966022</v>
+        <v>0.01757068410964946</v>
       </c>
       <c r="J3">
-        <v>0.1654361870770771</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.9329789936018074</v>
+        <v>0.8690583061831489</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08772606468709654</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.176726122824277</v>
       </c>
       <c r="N3">
-        <v>0.7846099228268368</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.563085860047863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3405547564597811</v>
+      </c>
+      <c r="P3">
+        <v>1.651632125453872</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7532121784362573</v>
+        <v>0.8355040438272283</v>
       </c>
       <c r="C4">
-        <v>0.1354418869830027</v>
+        <v>0.2514654580918148</v>
       </c>
       <c r="D4">
-        <v>0.1795038939381044</v>
+        <v>0.03355207489170198</v>
       </c>
       <c r="E4">
-        <v>0.1445360603849899</v>
+        <v>0.04919708510980314</v>
       </c>
       <c r="F4">
-        <v>0.6915387480952617</v>
+        <v>1.620760784923789</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02016366309431916</v>
       </c>
       <c r="I4">
-        <v>0.2936292187948162</v>
+        <v>0.02044182130411398</v>
       </c>
       <c r="J4">
-        <v>0.1537396067454395</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.8468457244845524</v>
+        <v>0.8458408598885327</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08083612172113419</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.072297388778566</v>
       </c>
       <c r="N4">
-        <v>0.8078504311328292</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.545541206793146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3110845028466258</v>
+      </c>
+      <c r="P4">
+        <v>1.656443462919178</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7220142561562852</v>
+        <v>0.8007101117974287</v>
       </c>
       <c r="C5">
-        <v>0.1298643446477854</v>
+        <v>0.2425393344882139</v>
       </c>
       <c r="D5">
-        <v>0.1731642604245422</v>
+        <v>0.03230266947971216</v>
       </c>
       <c r="E5">
-        <v>0.1397950071925322</v>
+        <v>0.04738487442866912</v>
       </c>
       <c r="F5">
-        <v>0.6843125763844355</v>
+        <v>1.592941572641919</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02145561095629567</v>
       </c>
       <c r="I5">
-        <v>0.2946090434595163</v>
+        <v>0.02180484122300941</v>
       </c>
       <c r="J5">
-        <v>0.1490231663719115</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.81177045781277</v>
+        <v>0.8353578067678313</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07800243914778093</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.029352737221899</v>
       </c>
       <c r="N5">
-        <v>0.8175609974466838</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.539135365112045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2990506407411644</v>
+      </c>
+      <c r="P5">
+        <v>1.657184567950289</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.716834921412385</v>
+        <v>0.7937585593256244</v>
       </c>
       <c r="C6">
-        <v>0.12893839823316</v>
+        <v>0.2415085869936604</v>
       </c>
       <c r="D6">
-        <v>0.1721133527657202</v>
+        <v>0.0322109334115126</v>
       </c>
       <c r="E6">
-        <v>0.1390098965353239</v>
+        <v>0.04712028646406452</v>
       </c>
       <c r="F6">
-        <v>0.6831305440994058</v>
+        <v>1.586530053163727</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02168473085910916</v>
       </c>
       <c r="I6">
-        <v>0.2947801978949869</v>
+        <v>0.02216307159441833</v>
       </c>
       <c r="J6">
-        <v>0.1482429111504686</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.8059474066505743</v>
+        <v>0.8323540494523343</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07750108957525015</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.021673309559958</v>
       </c>
       <c r="N6">
-        <v>0.8191877567621368</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.53811563980085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2970096730297982</v>
+      </c>
+      <c r="P6">
+        <v>1.655788929998771</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7527913556340309</v>
+        <v>0.8318245719376591</v>
       </c>
       <c r="C7">
-        <v>0.1353666515395417</v>
+        <v>0.2525634113550268</v>
       </c>
       <c r="D7">
-        <v>0.1794182740790262</v>
+        <v>0.03385021819586598</v>
       </c>
       <c r="E7">
-        <v>0.1444719756774688</v>
+        <v>0.04927126645818447</v>
       </c>
       <c r="F7">
-        <v>0.6914400864037802</v>
+        <v>1.615473321829484</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0202042821700712</v>
       </c>
       <c r="I7">
-        <v>0.2936418628454298</v>
+        <v>0.02078562028173359</v>
       </c>
       <c r="J7">
-        <v>0.1536758018868056</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.8463726017455144</v>
+        <v>0.842246724016519</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08071372925173392</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.070204793596616</v>
       </c>
       <c r="N7">
-        <v>0.8079804272762896</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.545451847582584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3108033033314683</v>
+      </c>
+      <c r="P7">
+        <v>1.652316652870709</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9116783701101951</v>
+        <v>1.002459128653953</v>
       </c>
       <c r="C8">
-        <v>0.163777096506621</v>
+        <v>0.3010948647543614</v>
       </c>
       <c r="D8">
-        <v>0.2119322081779558</v>
+        <v>0.04087735968739281</v>
       </c>
       <c r="E8">
-        <v>0.1689067596849867</v>
+        <v>0.05871890702439231</v>
       </c>
       <c r="F8">
-        <v>0.7308069862343913</v>
+        <v>1.748801481067346</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01447105545434396</v>
       </c>
       <c r="I8">
-        <v>0.2898850017164811</v>
+        <v>0.01523047601580885</v>
       </c>
       <c r="J8">
-        <v>0.1780997983020995</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.025007999528242</v>
+        <v>0.8893199216652121</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09496785956227427</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.28638804836848</v>
       </c>
       <c r="N8">
-        <v>0.7606459059171318</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.584444831903795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3718907347417328</v>
+      </c>
+      <c r="P8">
+        <v>1.641199423821249</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.224734303250415</v>
+        <v>1.342026646233933</v>
       </c>
       <c r="C9">
-        <v>0.2198044405543271</v>
+        <v>0.3979539719396143</v>
       </c>
       <c r="D9">
-        <v>0.2768987012890705</v>
+        <v>0.05448489296443881</v>
       </c>
       <c r="E9">
-        <v>0.2182342447274124</v>
+        <v>0.07733546005606229</v>
       </c>
       <c r="F9">
-        <v>0.8187458416028619</v>
+        <v>2.023286393288586</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006417130789419412</v>
       </c>
       <c r="I9">
-        <v>0.2874498673331694</v>
+        <v>0.007180596406855422</v>
       </c>
       <c r="J9">
-        <v>0.227894925150963</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.377021796136944</v>
+        <v>0.9885410731984834</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1231972566186315</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.716329155886541</v>
       </c>
       <c r="N9">
-        <v>0.6758355176736686</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.687058226760143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4925738411203966</v>
+      </c>
+      <c r="P9">
+        <v>1.627745922789359</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456365292075503</v>
+        <v>1.583835277071017</v>
       </c>
       <c r="C10">
-        <v>0.2613237280859408</v>
+        <v>0.4675386440351588</v>
       </c>
       <c r="D10">
-        <v>0.3255760586492187</v>
+        <v>0.06299299738498831</v>
       </c>
       <c r="E10">
-        <v>0.2555587410206499</v>
+        <v>0.0867340490209898</v>
       </c>
       <c r="F10">
-        <v>0.8909535431644997</v>
+        <v>2.195081715430959</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003073849373112836</v>
       </c>
       <c r="I10">
-        <v>0.289048059685598</v>
+        <v>0.003783743180719057</v>
       </c>
       <c r="J10">
-        <v>0.2659261006936191</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.637550139055577</v>
+        <v>1.047321298206946</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1361654269571275</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.022772624916541</v>
       </c>
       <c r="N10">
-        <v>0.6187941771442862</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.780760057873266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5705240468721229</v>
+      </c>
+      <c r="P10">
+        <v>1.599460968950964</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.562267847272267</v>
+        <v>1.635009685992628</v>
       </c>
       <c r="C11">
-        <v>0.2803287899039049</v>
+        <v>0.4570102933461726</v>
       </c>
       <c r="D11">
-        <v>0.3479761559543846</v>
+        <v>0.05133115533858046</v>
       </c>
       <c r="E11">
-        <v>0.2728269038599933</v>
+        <v>0.05645141336597348</v>
       </c>
       <c r="F11">
-        <v>0.9257014557067009</v>
+        <v>2.003294367557743</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02160850854339813</v>
       </c>
       <c r="I11">
-        <v>0.2906003719014834</v>
+        <v>0.003677421551322446</v>
       </c>
       <c r="J11">
-        <v>0.2836101003604909</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.756690898621514</v>
+        <v>0.9573745591578344</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08450701621920587</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.056855272427526</v>
       </c>
       <c r="N11">
-        <v>0.594079306598589</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.827924572237663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5098465052589063</v>
+      </c>
+      <c r="P11">
+        <v>1.441095983177405</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.602462047397296</v>
+        <v>1.631474676191715</v>
       </c>
       <c r="C12">
-        <v>0.287545928343576</v>
+        <v>0.4314089568746908</v>
       </c>
       <c r="D12">
-        <v>0.3564997308847779</v>
+        <v>0.04039900693254594</v>
       </c>
       <c r="E12">
-        <v>0.27941213074714</v>
+        <v>0.0356011970251604</v>
       </c>
       <c r="F12">
-        <v>0.9391549123977825</v>
+        <v>1.819452030273155</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06058965382860038</v>
       </c>
       <c r="I12">
-        <v>0.2913148709051789</v>
+        <v>0.003624691182855244</v>
       </c>
       <c r="J12">
-        <v>0.2903677598069976</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.801914255675285</v>
+        <v>0.8775058563793223</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05379813172566728</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.021859945420147</v>
       </c>
       <c r="N12">
-        <v>0.584906025356986</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.846487219260581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4457313133402749</v>
+      </c>
+      <c r="P12">
+        <v>1.331898758943233</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.593801206739556</v>
+        <v>1.580452214688734</v>
       </c>
       <c r="C13">
-        <v>0.2859906270354315</v>
+        <v>0.3947696047862337</v>
       </c>
       <c r="D13">
-        <v>0.3546621257739133</v>
+        <v>0.02996442983790359</v>
       </c>
       <c r="E13">
-        <v>0.2779917555543321</v>
+        <v>0.02100883287101052</v>
       </c>
       <c r="F13">
-        <v>0.9362439769807196</v>
+        <v>1.623910746176918</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1170074633359093</v>
       </c>
       <c r="I13">
-        <v>0.291155224076622</v>
+        <v>0.004002176931345858</v>
       </c>
       <c r="J13">
-        <v>0.288909559353101</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.792169531227898</v>
+        <v>0.7954586561194077</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03727392863221457</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.929395530931032</v>
       </c>
       <c r="N13">
-        <v>0.5868732580991569</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.842457350575557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.37558754925535</v>
+      </c>
+      <c r="P13">
+        <v>1.247265385111625</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565572732930633</v>
+        <v>1.522521973963933</v>
       </c>
       <c r="C14">
-        <v>0.2809221202576282</v>
+        <v>0.3647800593873285</v>
       </c>
       <c r="D14">
-        <v>0.3486765456021175</v>
+        <v>0.02318521670816409</v>
       </c>
       <c r="E14">
-        <v>0.2733677222028561</v>
+        <v>0.01462015412875806</v>
       </c>
       <c r="F14">
-        <v>0.9268022331286545</v>
+        <v>1.48266884686457</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1670103742554403</v>
       </c>
       <c r="I14">
-        <v>0.290656567808572</v>
+        <v>0.004595445793565744</v>
       </c>
       <c r="J14">
-        <v>0.284164796581706</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.760409195740863</v>
+        <v>0.7370599407837943</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03421629513600166</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.83876025669764</v>
       </c>
       <c r="N14">
-        <v>0.5933208438611004</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.829437356970942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3247280644246615</v>
+      </c>
+      <c r="P14">
+        <v>1.200078718053561</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.548294306933229</v>
+        <v>1.49721200708683</v>
       </c>
       <c r="C15">
-        <v>0.2778202671453585</v>
+        <v>0.3556204589724814</v>
       </c>
       <c r="D15">
-        <v>0.345015694303811</v>
+        <v>0.02157353787512406</v>
       </c>
       <c r="E15">
-        <v>0.270541519422089</v>
+        <v>0.0135242974015819</v>
       </c>
       <c r="F15">
-        <v>0.9210580085994877</v>
+        <v>1.443724798775335</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1798174019423868</v>
       </c>
       <c r="I15">
-        <v>0.2903678690828464</v>
+        <v>0.004991398068842301</v>
       </c>
       <c r="J15">
-        <v>0.281266635429418</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.740969591201377</v>
+        <v>0.7210481768782202</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03447179670916078</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.804210330163812</v>
       </c>
       <c r="N15">
-        <v>0.5972946166074884</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.821555250625124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3107231002785937</v>
+      </c>
+      <c r="P15">
+        <v>1.191395589459177</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449456252754743</v>
+        <v>1.402572881466256</v>
       </c>
       <c r="C16">
-        <v>0.2600843567169306</v>
+        <v>0.3344753313602951</v>
       </c>
       <c r="D16">
-        <v>0.3241176789519074</v>
+        <v>0.02050919406544338</v>
       </c>
       <c r="E16">
-        <v>0.2544364272934203</v>
+        <v>0.01300883622493343</v>
       </c>
       <c r="F16">
-        <v>0.8887227645128064</v>
+        <v>1.410371658675757</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1685543526685791</v>
       </c>
       <c r="I16">
-        <v>0.2889638912357242</v>
+        <v>0.006436342953846541</v>
       </c>
       <c r="J16">
-        <v>0.264778626871859</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.629778051781386</v>
+        <v>0.7116646502325281</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03290208445512288</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.692095123526713</v>
       </c>
       <c r="N16">
-        <v>0.6204348733227523</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.77777326220945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2936225949281024</v>
+      </c>
+      <c r="P16">
+        <v>1.217855858481073</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.388968770565157</v>
+        <v>1.360619977621724</v>
       </c>
       <c r="C17">
-        <v>0.249236444453274</v>
+        <v>0.3341575483943302</v>
       </c>
       <c r="D17">
-        <v>0.3113660655976247</v>
+        <v>0.02314874929462007</v>
       </c>
       <c r="E17">
-        <v>0.2446336745798163</v>
+        <v>0.01531597781185745</v>
       </c>
       <c r="F17">
-        <v>0.8693879889100913</v>
+        <v>1.458449049420949</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1315772649344638</v>
       </c>
       <c r="I17">
-        <v>0.2883195017854661</v>
+        <v>0.007284718453809624</v>
       </c>
       <c r="J17">
-        <v>0.2547660977673445</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.561737769591559</v>
+        <v>0.7349005747213795</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03182972847191579</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.654084144346967</v>
       </c>
       <c r="N17">
-        <v>0.6349523644919266</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.752111372592651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3068051688606275</v>
+      </c>
+      <c r="P17">
+        <v>1.26222668632083</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.354227151491699</v>
+        <v>1.361530046008454</v>
       </c>
       <c r="C18">
-        <v>0.2430078745867803</v>
+        <v>0.3508576590693337</v>
       </c>
       <c r="D18">
-        <v>0.3040555488806262</v>
+        <v>0.0297258059351222</v>
       </c>
       <c r="E18">
-        <v>0.2390223063511172</v>
+        <v>0.02366193214896306</v>
       </c>
       <c r="F18">
-        <v>0.8584446037975368</v>
+        <v>1.589492382040206</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07878304736375696</v>
       </c>
       <c r="I18">
-        <v>0.2880260375806678</v>
+        <v>0.007234877658931715</v>
       </c>
       <c r="J18">
-        <v>0.2490428645766656</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.522660519514432</v>
+        <v>0.7930393359920629</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03863675937810207</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.676204075349119</v>
       </c>
       <c r="N18">
-        <v>0.6434180174274555</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.737775403944056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3496015748154946</v>
+      </c>
+      <c r="P18">
+        <v>1.335526177960183</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.342472254001137</v>
+        <v>1.390642437235755</v>
       </c>
       <c r="C19">
-        <v>0.2409007539582859</v>
+        <v>0.3827218803325536</v>
       </c>
       <c r="D19">
-        <v>0.3015843087908792</v>
+        <v>0.04044424621798726</v>
       </c>
       <c r="E19">
-        <v>0.2371268816846523</v>
+        <v>0.04145109380751855</v>
       </c>
       <c r="F19">
-        <v>0.8547691971413798</v>
+        <v>1.777466199059631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03272260940510563</v>
       </c>
       <c r="I19">
-        <v>0.2879396945660631</v>
+        <v>0.007018639870794097</v>
       </c>
       <c r="J19">
-        <v>0.2471110336517484</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.509439036449777</v>
+        <v>0.8729094005500002</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0625755483035384</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.742420157232118</v>
       </c>
       <c r="N19">
-        <v>0.6463039472022327</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.732992863171887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4163855658567925</v>
+      </c>
+      <c r="P19">
+        <v>1.431519477540704</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.395402573569555</v>
+        <v>1.509710871346329</v>
       </c>
       <c r="C20">
-        <v>0.2503900751888892</v>
+        <v>0.4527170119469872</v>
       </c>
       <c r="D20">
-        <v>0.3127209958024082</v>
+        <v>0.06166496795270859</v>
       </c>
       <c r="E20">
-        <v>0.2456743764414639</v>
+        <v>0.08436431172062342</v>
       </c>
       <c r="F20">
-        <v>0.8714276874933233</v>
+        <v>2.133175739471412</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003821920787982158</v>
       </c>
       <c r="I20">
-        <v>0.2883800548836639</v>
+        <v>0.005407589724359063</v>
       </c>
       <c r="J20">
-        <v>0.255828210869069</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.568974677541121</v>
+        <v>1.020602649870682</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1321384915920376</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.936657015951369</v>
       </c>
       <c r="N20">
-        <v>0.6333949324712851</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.75479888481479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5491521922505953</v>
+      </c>
+      <c r="P20">
+        <v>1.593906962738089</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.5738615229304</v>
+        <v>1.707005518655222</v>
       </c>
       <c r="C21">
-        <v>0.2824102832515791</v>
+        <v>0.5144362815725287</v>
       </c>
       <c r="D21">
-        <v>0.3504335036053732</v>
+        <v>0.07112499381835136</v>
       </c>
       <c r="E21">
-        <v>0.2747246223699094</v>
+        <v>0.09870667438254443</v>
       </c>
       <c r="F21">
-        <v>0.929567309186595</v>
+        <v>2.317583545091964</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001494871806069664</v>
       </c>
       <c r="I21">
-        <v>0.2907995310826443</v>
+        <v>0.00328646385279896</v>
       </c>
       <c r="J21">
-        <v>0.2855567401666121</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.769734917662788</v>
+        <v>1.088706067484331</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1545237017898415</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.192436346045014</v>
       </c>
       <c r="N21">
-        <v>0.5914219226838835</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.83324216678912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6269072374339189</v>
+      </c>
+      <c r="P21">
+        <v>1.602102881125191</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.691033912187265</v>
+        <v>1.837432479295018</v>
       </c>
       <c r="C22">
-        <v>0.3034576366370345</v>
+        <v>0.5512620103411905</v>
       </c>
       <c r="D22">
-        <v>0.3753228120639278</v>
+        <v>0.07595673114870749</v>
       </c>
       <c r="E22">
-        <v>0.2939819800471852</v>
+        <v>0.1056884735154782</v>
       </c>
       <c r="F22">
-        <v>0.9692966734465358</v>
+        <v>2.429733375205743</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0006301842801814672</v>
       </c>
       <c r="I22">
-        <v>0.2931232325374467</v>
+        <v>0.002109965310266304</v>
       </c>
       <c r="J22">
-        <v>0.3053453392046919</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.901578014254227</v>
+        <v>1.131240470013161</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1653144943093778</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.356666224174575</v>
       </c>
       <c r="N22">
-        <v>0.5650768120649712</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.888629448663409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6723536341367691</v>
+      </c>
+      <c r="P22">
+        <v>1.603947927306152</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.628442357076437</v>
+        <v>1.771748943135464</v>
       </c>
       <c r="C23">
-        <v>0.2922120658061829</v>
+        <v>0.5300555903973247</v>
       </c>
       <c r="D23">
-        <v>0.3620152943051238</v>
+        <v>0.07298277609384485</v>
       </c>
       <c r="E23">
-        <v>0.2836775416764397</v>
+        <v>0.1018350566369435</v>
       </c>
       <c r="F23">
-        <v>0.9479262770753536</v>
+        <v>2.375575958012064</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001039042707439375</v>
       </c>
       <c r="I23">
-        <v>0.2918123166850997</v>
+        <v>0.002360846854422505</v>
       </c>
       <c r="J23">
-        <v>0.2947488329097325</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.831146697116935</v>
+        <v>1.112566972700556</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1596525306763894</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.270799864773124</v>
       </c>
       <c r="N23">
-        <v>0.5790353706413889</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.858673905211532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6482272463511549</v>
+      </c>
+      <c r="P23">
+        <v>1.607529851344864</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.392493748166231</v>
+        <v>1.517316205960242</v>
       </c>
       <c r="C24">
-        <v>0.2498684939464226</v>
+        <v>0.4535537328214048</v>
       </c>
       <c r="D24">
-        <v>0.3121083681488699</v>
+        <v>0.06247340091069731</v>
       </c>
       <c r="E24">
-        <v>0.2452037995813612</v>
+        <v>0.08758046341775483</v>
       </c>
       <c r="F24">
-        <v>0.870505004307887</v>
+        <v>2.163526066849698</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003584895499548102</v>
       </c>
       <c r="I24">
-        <v>0.2883524395767765</v>
+        <v>0.004838300502592041</v>
       </c>
       <c r="J24">
-        <v>0.2553479268738243</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.565702748124636</v>
+        <v>1.036103391819893</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1382146005353704</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.944686906371174</v>
       </c>
       <c r="N24">
-        <v>0.6340986763506695</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.753582564174906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5570877772202039</v>
+      </c>
+      <c r="P24">
+        <v>1.614548579699871</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139813791122464</v>
+        <v>1.244248539519901</v>
       </c>
       <c r="C25">
-        <v>0.2045976179038149</v>
+        <v>0.3735129088269389</v>
       </c>
       <c r="D25">
-        <v>0.2591733465319805</v>
+        <v>0.05133842626459995</v>
       </c>
       <c r="E25">
-        <v>0.2047165492110068</v>
+        <v>0.07244301008100607</v>
       </c>
       <c r="F25">
-        <v>0.7937014849819306</v>
+        <v>1.939597133550805</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008249829502933292</v>
       </c>
       <c r="I25">
-        <v>0.2875426882633505</v>
+        <v>0.009489798711022068</v>
       </c>
       <c r="J25">
-        <v>0.2141919245271993</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.28152412641677</v>
+        <v>0.9553614506688248</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.115376767066401</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.596731070351041</v>
       </c>
       <c r="N25">
-        <v>0.6978829437754364</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.656263105608247</v>
+        <v>0.4595991974296112</v>
+      </c>
+      <c r="P25">
+        <v>1.624021432334018</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.053201235981419</v>
+        <v>0.9306623672552234</v>
       </c>
       <c r="C2">
-        <v>0.3127545325369283</v>
+        <v>0.367750843818385</v>
       </c>
       <c r="D2">
-        <v>0.0423571203981723</v>
+        <v>0.05680328872360008</v>
       </c>
       <c r="E2">
-        <v>0.06115343654932559</v>
+        <v>0.06796227947903688</v>
       </c>
       <c r="F2">
-        <v>1.792106638165734</v>
+        <v>1.568820571019259</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01310063296307612</v>
+        <v>0.01110107996359132</v>
       </c>
       <c r="I2">
-        <v>0.01353962962467126</v>
+        <v>0.009370407750853182</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.9069787061282568</v>
+        <v>0.73600565917517</v>
       </c>
       <c r="L2">
-        <v>0.09895414093760735</v>
+        <v>0.3074435623568306</v>
       </c>
       <c r="M2">
-        <v>1.347308571655532</v>
+        <v>0.2458579682967574</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09950600085759476</v>
       </c>
       <c r="O2">
-        <v>0.3886485511466944</v>
+        <v>1.290901113171799</v>
       </c>
       <c r="P2">
-        <v>1.643985384195261</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3856347444836672</v>
+      </c>
+      <c r="R2">
+        <v>1.428026193755521</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9184200860786405</v>
+        <v>0.8146545137198302</v>
       </c>
       <c r="C3">
-        <v>0.2745102400404278</v>
+        <v>0.3222686616625765</v>
       </c>
       <c r="D3">
-        <v>0.03687389716818501</v>
+        <v>0.0490667243637688</v>
       </c>
       <c r="E3">
-        <v>0.05372935193661732</v>
+        <v>0.05989277053077302</v>
       </c>
       <c r="F3">
-        <v>1.685665209142385</v>
+        <v>1.487891725422344</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01723907476983799</v>
+        <v>0.01469650562085878</v>
       </c>
       <c r="I3">
-        <v>0.01757068410964946</v>
+        <v>0.01228322122914838</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.8690583061831489</v>
+        <v>0.7143368199883682</v>
       </c>
       <c r="L3">
-        <v>0.08772606468709654</v>
+        <v>0.3056068818546649</v>
       </c>
       <c r="M3">
-        <v>1.176726122824277</v>
+        <v>0.232975839281</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08884235643859739</v>
       </c>
       <c r="O3">
-        <v>0.3405547564597811</v>
+        <v>1.128758145220502</v>
       </c>
       <c r="P3">
-        <v>1.651632125453872</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3381875995968997</v>
+      </c>
+      <c r="R3">
+        <v>1.451652599243516</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8355040438272283</v>
+        <v>0.7430089901816359</v>
       </c>
       <c r="C4">
-        <v>0.2514654580918148</v>
+        <v>0.2949121115500475</v>
       </c>
       <c r="D4">
-        <v>0.03355207489170198</v>
+        <v>0.04438498065474761</v>
       </c>
       <c r="E4">
-        <v>0.04919708510980314</v>
+        <v>0.05496316472817853</v>
       </c>
       <c r="F4">
-        <v>1.620760784923789</v>
+        <v>1.438441231453282</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02016366309431916</v>
+        <v>0.01724507123825025</v>
       </c>
       <c r="I4">
-        <v>0.02044182130411398</v>
+        <v>0.01438756750408743</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.8458408598885327</v>
+        <v>0.700973050792328</v>
       </c>
       <c r="L4">
-        <v>0.08083612172113419</v>
+        <v>0.3042317574210287</v>
       </c>
       <c r="M4">
-        <v>1.072297388778566</v>
+        <v>0.2258009554422635</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08228378246801071</v>
       </c>
       <c r="O4">
-        <v>0.3110845028466258</v>
+        <v>1.029323659966707</v>
       </c>
       <c r="P4">
-        <v>1.656443462919178</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3090933304859647</v>
+      </c>
+      <c r="R4">
+        <v>1.466322522740761</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8007101117974287</v>
+        <v>0.7128503250656308</v>
       </c>
       <c r="C5">
-        <v>0.2425393344882139</v>
+        <v>0.2842658134001965</v>
       </c>
       <c r="D5">
-        <v>0.03230266947971216</v>
+        <v>0.04259423002846319</v>
       </c>
       <c r="E5">
-        <v>0.04738487442866912</v>
+        <v>0.05298820474725474</v>
       </c>
       <c r="F5">
-        <v>1.592941572641919</v>
+        <v>1.417050637499798</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02145561095629567</v>
+        <v>0.01837249350085846</v>
       </c>
       <c r="I5">
-        <v>0.02180484122300941</v>
+        <v>0.01542784075560366</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.8353578067678313</v>
+        <v>0.694650864956678</v>
       </c>
       <c r="L5">
-        <v>0.07800243914778093</v>
+        <v>0.3032316687162577</v>
       </c>
       <c r="M5">
-        <v>1.029352737221899</v>
+        <v>0.2227939251532867</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07958306954915173</v>
       </c>
       <c r="O5">
-        <v>0.2990506407411644</v>
+        <v>0.9884036603887409</v>
       </c>
       <c r="P5">
-        <v>1.657184567950289</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2972101338819755</v>
+      </c>
+      <c r="R5">
+        <v>1.471374053868715</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7937585593256244</v>
+        <v>0.7067920682651447</v>
       </c>
       <c r="C6">
-        <v>0.2415085869936604</v>
+        <v>0.2829569893922042</v>
       </c>
       <c r="D6">
-        <v>0.0322109334115126</v>
+        <v>0.04242153956928973</v>
       </c>
       <c r="E6">
-        <v>0.04712028646406452</v>
+        <v>0.05269573870331357</v>
       </c>
       <c r="F6">
-        <v>1.586530053163727</v>
+        <v>1.41192576941755</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02168473085910916</v>
+        <v>0.01857237450749616</v>
       </c>
       <c r="I6">
-        <v>0.02216307159441833</v>
+        <v>0.0157438768139162</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.8323540494523343</v>
+        <v>0.6925511414943344</v>
       </c>
       <c r="L6">
-        <v>0.07750108957525015</v>
+        <v>0.3026018418980527</v>
       </c>
       <c r="M6">
-        <v>1.021673309559958</v>
+        <v>0.2219801056709336</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07910532497776757</v>
       </c>
       <c r="O6">
-        <v>0.2970096730297982</v>
+        <v>0.9810990648360018</v>
       </c>
       <c r="P6">
-        <v>1.655788929998771</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2951965990917813</v>
+      </c>
+      <c r="R6">
+        <v>1.47103901264807</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8318245719376591</v>
+        <v>0.7397448972428435</v>
       </c>
       <c r="C7">
-        <v>0.2525634113550268</v>
+        <v>0.2960036694922508</v>
       </c>
       <c r="D7">
-        <v>0.03385021819586598</v>
+        <v>0.04470004797297378</v>
       </c>
       <c r="E7">
-        <v>0.04927126645818447</v>
+        <v>0.05503292266172366</v>
       </c>
       <c r="F7">
-        <v>1.615473321829484</v>
+        <v>1.433855347691164</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0202042821700712</v>
+        <v>0.01728005242049913</v>
       </c>
       <c r="I7">
-        <v>0.02078562028173359</v>
+        <v>0.01475932001586244</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.842246724016519</v>
+        <v>0.698030984995107</v>
       </c>
       <c r="L7">
-        <v>0.08071372925173392</v>
+        <v>0.3029861762782531</v>
       </c>
       <c r="M7">
-        <v>1.070204793596616</v>
+        <v>0.2248520643452245</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08216807679399807</v>
       </c>
       <c r="O7">
-        <v>0.3108033033314683</v>
+        <v>1.02737248100803</v>
       </c>
       <c r="P7">
-        <v>1.652316652870709</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3088216113193027</v>
+      </c>
+      <c r="R7">
+        <v>1.463208790624748</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.002459128653953</v>
+        <v>0.8869365063828241</v>
       </c>
       <c r="C8">
-        <v>0.3010948647543614</v>
+        <v>0.3535959691565154</v>
       </c>
       <c r="D8">
-        <v>0.04087735968739281</v>
+        <v>0.05457681646341683</v>
       </c>
       <c r="E8">
-        <v>0.05871890702439231</v>
+        <v>0.0653029275369974</v>
       </c>
       <c r="F8">
-        <v>1.748801481067346</v>
+        <v>1.535203576345623</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01447105545434396</v>
+        <v>0.01228948568239394</v>
       </c>
       <c r="I8">
-        <v>0.01523047601580885</v>
+        <v>0.01073468929457633</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.8893199216652121</v>
+        <v>0.7248017965270677</v>
       </c>
       <c r="L8">
-        <v>0.09496785956227427</v>
+        <v>0.3053316492941747</v>
       </c>
       <c r="M8">
-        <v>1.28638804836848</v>
+        <v>0.239986829445602</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09572492515155062</v>
       </c>
       <c r="O8">
-        <v>0.3718907347417328</v>
+        <v>1.233088016312223</v>
       </c>
       <c r="P8">
-        <v>1.641199423821249</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3691148892075589</v>
+      </c>
+      <c r="R8">
+        <v>1.432064997039603</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.342026646233933</v>
+        <v>1.177681467703678</v>
       </c>
       <c r="C9">
-        <v>0.3979539719396143</v>
+        <v>0.469277624700311</v>
       </c>
       <c r="D9">
-        <v>0.05448489296443881</v>
+        <v>0.07391688218882564</v>
       </c>
       <c r="E9">
-        <v>0.07733546005606229</v>
+        <v>0.0855210337321779</v>
       </c>
       <c r="F9">
-        <v>2.023286393288586</v>
+        <v>1.74401404653841</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006417130789419412</v>
+        <v>0.005334922235435191</v>
       </c>
       <c r="I9">
-        <v>0.007180596406855422</v>
+        <v>0.004952586085582134</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.9885410731984834</v>
+        <v>0.7820231368731143</v>
       </c>
       <c r="L9">
-        <v>0.1231972566186315</v>
+        <v>0.3100130539468537</v>
       </c>
       <c r="M9">
-        <v>1.716329155886541</v>
+        <v>0.2773602265480974</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1224395704591501</v>
       </c>
       <c r="O9">
-        <v>0.4925738411203966</v>
+        <v>1.640654501363372</v>
       </c>
       <c r="P9">
-        <v>1.627745922789359</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4880328564915004</v>
+      </c>
+      <c r="R9">
+        <v>1.377886907036242</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.583835277071017</v>
+        <v>1.384433767342841</v>
       </c>
       <c r="C10">
-        <v>0.4675386440351588</v>
+        <v>0.5522281685675239</v>
       </c>
       <c r="D10">
-        <v>0.06299299738498831</v>
+        <v>0.0862463053371556</v>
       </c>
       <c r="E10">
-        <v>0.0867340490209898</v>
+        <v>0.09579690294936682</v>
       </c>
       <c r="F10">
-        <v>2.195081715430959</v>
+        <v>1.871841147399891</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.003073849373112836</v>
+        <v>0.002520589241963744</v>
       </c>
       <c r="I10">
-        <v>0.003783743180719057</v>
+        <v>0.00274203267242612</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.047321298206946</v>
+        <v>0.8131634600194673</v>
       </c>
       <c r="L10">
-        <v>0.1361654269571275</v>
+        <v>0.3083718073804675</v>
       </c>
       <c r="M10">
-        <v>2.022772624916541</v>
+        <v>0.3043154041853171</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1343590179489453</v>
       </c>
       <c r="O10">
-        <v>0.5705240468721229</v>
+        <v>1.930655675528755</v>
       </c>
       <c r="P10">
-        <v>1.599460968950964</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5646535856032386</v>
+      </c>
+      <c r="R10">
+        <v>1.326319227230918</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.635009685992628</v>
+        <v>1.43896804263548</v>
       </c>
       <c r="C11">
-        <v>0.4570102933461726</v>
+        <v>0.5374994228369303</v>
       </c>
       <c r="D11">
-        <v>0.05133115533858046</v>
+        <v>0.07186132522919308</v>
       </c>
       <c r="E11">
-        <v>0.05645141336597348</v>
+        <v>0.06355191008363548</v>
       </c>
       <c r="F11">
-        <v>2.003294367557743</v>
+        <v>1.705656237117523</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02160850854339813</v>
+        <v>0.02108564826958315</v>
       </c>
       <c r="I11">
-        <v>0.003677421551322446</v>
+        <v>0.002966818113845804</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.9573745591578344</v>
+        <v>0.7424895600371784</v>
       </c>
       <c r="L11">
-        <v>0.08450701621920587</v>
+        <v>0.2776641227227685</v>
       </c>
       <c r="M11">
-        <v>2.056855272427526</v>
+        <v>0.283309888376003</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08364981618899492</v>
       </c>
       <c r="O11">
-        <v>0.5098465052589063</v>
+        <v>1.967197334191042</v>
       </c>
       <c r="P11">
-        <v>1.441095983177405</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5043973995962219</v>
+      </c>
+      <c r="R11">
+        <v>1.208655952140596</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.631474676191715</v>
+        <v>1.445421860166419</v>
       </c>
       <c r="C12">
-        <v>0.4314089568746908</v>
+        <v>0.505512823279588</v>
       </c>
       <c r="D12">
-        <v>0.04039900693254594</v>
+        <v>0.05791857329438699</v>
       </c>
       <c r="E12">
-        <v>0.0356011970251604</v>
+        <v>0.04098578688237353</v>
       </c>
       <c r="F12">
-        <v>1.819452030273155</v>
+        <v>1.550632169578208</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06058965382860038</v>
+        <v>0.06002970198308333</v>
       </c>
       <c r="I12">
-        <v>0.003624691182855244</v>
+        <v>0.002925981671351607</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.8775058563793223</v>
+        <v>0.6829358860617418</v>
       </c>
       <c r="L12">
-        <v>0.05379813172566728</v>
+        <v>0.2550209588160754</v>
       </c>
       <c r="M12">
-        <v>2.021859945420147</v>
+        <v>0.2617978723828784</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05388345771537573</v>
       </c>
       <c r="O12">
-        <v>0.4457313133402749</v>
+        <v>1.937696453344017</v>
       </c>
       <c r="P12">
-        <v>1.331898758943233</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4408874943618528</v>
+      </c>
+      <c r="R12">
+        <v>1.134723058014501</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.580452214688734</v>
+        <v>1.410644869474311</v>
       </c>
       <c r="C13">
-        <v>0.3947696047862337</v>
+        <v>0.460545515989736</v>
       </c>
       <c r="D13">
-        <v>0.02996442983790359</v>
+        <v>0.04419474275865554</v>
       </c>
       <c r="E13">
-        <v>0.02100883287101052</v>
+        <v>0.02479776029808178</v>
       </c>
       <c r="F13">
-        <v>1.623910746176918</v>
+        <v>1.388675644055027</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1170074633359093</v>
+        <v>0.1163451819706012</v>
       </c>
       <c r="I13">
-        <v>0.004002176931345858</v>
+        <v>0.003140161835804456</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.7954586561194077</v>
+        <v>0.6239727159331778</v>
       </c>
       <c r="L13">
-        <v>0.03727392863221457</v>
+        <v>0.2350472309193243</v>
       </c>
       <c r="M13">
-        <v>1.929395530931032</v>
+        <v>0.2373329746063177</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03831297503825359</v>
       </c>
       <c r="O13">
-        <v>0.37558754925535</v>
+        <v>1.85353008282587</v>
       </c>
       <c r="P13">
-        <v>1.247265385111625</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3715036753434333</v>
+      </c>
+      <c r="R13">
+        <v>1.084332468099475</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.522521973963933</v>
+        <v>1.366900689267396</v>
       </c>
       <c r="C14">
-        <v>0.3647800593873285</v>
+        <v>0.4239537800018809</v>
       </c>
       <c r="D14">
-        <v>0.02318521670816409</v>
+        <v>0.03506431899581486</v>
       </c>
       <c r="E14">
-        <v>0.01462015412875806</v>
+        <v>0.01738468767558299</v>
       </c>
       <c r="F14">
-        <v>1.48266884686457</v>
+        <v>1.272726062288044</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1670103742554403</v>
+        <v>0.1662415524177021</v>
       </c>
       <c r="I14">
-        <v>0.004595445793565744</v>
+        <v>0.003542764611684568</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7370599407837943</v>
+        <v>0.582797495330162</v>
       </c>
       <c r="L14">
-        <v>0.03421629513600166</v>
+        <v>0.2219600139682285</v>
       </c>
       <c r="M14">
-        <v>1.83876025669764</v>
+        <v>0.2190751710751115</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03589211498919909</v>
       </c>
       <c r="O14">
-        <v>0.3247280644246615</v>
+        <v>1.769908370355637</v>
       </c>
       <c r="P14">
-        <v>1.200078718053561</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3212216267220782</v>
+      </c>
+      <c r="R14">
+        <v>1.060205675388314</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.49721200708683</v>
+        <v>1.346432360291431</v>
       </c>
       <c r="C15">
-        <v>0.3556204589724814</v>
+        <v>0.4127950789942076</v>
       </c>
       <c r="D15">
-        <v>0.02157353787512406</v>
+        <v>0.03282548191375412</v>
       </c>
       <c r="E15">
-        <v>0.0135242974015819</v>
+        <v>0.01605598420745658</v>
       </c>
       <c r="F15">
-        <v>1.443724798775335</v>
+        <v>1.2411915506528</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1798174019423868</v>
+        <v>0.1790008269921231</v>
       </c>
       <c r="I15">
-        <v>0.004991398068842301</v>
+        <v>0.003867056392226509</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.7210481768782202</v>
+        <v>0.5718036658765939</v>
       </c>
       <c r="L15">
-        <v>0.03447179670916078</v>
+        <v>0.2187981493937414</v>
       </c>
       <c r="M15">
-        <v>1.804210330163812</v>
+        <v>0.2137360954253182</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03630790769477432</v>
       </c>
       <c r="O15">
-        <v>0.3107231002785937</v>
+        <v>1.737667857702689</v>
       </c>
       <c r="P15">
-        <v>1.191395589459177</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3073895475297164</v>
+      </c>
+      <c r="R15">
+        <v>1.05741224237401</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.402572881466256</v>
+        <v>1.263461373139933</v>
       </c>
       <c r="C16">
-        <v>0.3344753313602951</v>
+        <v>0.3878500199667769</v>
       </c>
       <c r="D16">
-        <v>0.02050919406544338</v>
+        <v>0.03101809133547562</v>
       </c>
       <c r="E16">
-        <v>0.01300883622493343</v>
+        <v>0.01559192938646659</v>
       </c>
       <c r="F16">
-        <v>1.410371658675757</v>
+        <v>1.218650312565558</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1685543526685791</v>
+        <v>0.1675141374309419</v>
       </c>
       <c r="I16">
-        <v>0.006436342953846541</v>
+        <v>0.00488523803180918</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.7116646502325281</v>
+        <v>0.5689468936192768</v>
       </c>
       <c r="L16">
-        <v>0.03290208445512288</v>
+        <v>0.2213699131285765</v>
       </c>
       <c r="M16">
-        <v>1.692095123526713</v>
+        <v>0.2077721209498193</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03485705694979835</v>
       </c>
       <c r="O16">
-        <v>0.2936225949281024</v>
+        <v>1.630792762115789</v>
       </c>
       <c r="P16">
-        <v>1.217855858481073</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2906123890112084</v>
+      </c>
+      <c r="R16">
+        <v>1.085412900144885</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.360619977621724</v>
+        <v>1.222967505566174</v>
       </c>
       <c r="C17">
-        <v>0.3341575483943302</v>
+        <v>0.3880732426831344</v>
       </c>
       <c r="D17">
-        <v>0.02314874929462007</v>
+        <v>0.03427661012595706</v>
       </c>
       <c r="E17">
-        <v>0.01531597781185745</v>
+        <v>0.01844710145334894</v>
       </c>
       <c r="F17">
-        <v>1.458449049420949</v>
+        <v>1.262053323859405</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1315772649344638</v>
+        <v>0.1304196501112074</v>
       </c>
       <c r="I17">
-        <v>0.007284718453809624</v>
+        <v>0.005504022609851056</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.7349005747213795</v>
+        <v>0.5883492213828205</v>
       </c>
       <c r="L17">
-        <v>0.03182972847191579</v>
+        <v>0.2305454215393539</v>
       </c>
       <c r="M17">
-        <v>1.654084144346967</v>
+        <v>0.2125354594287678</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03357453772546726</v>
       </c>
       <c r="O17">
-        <v>0.3068051688606275</v>
+        <v>1.593115494052569</v>
       </c>
       <c r="P17">
-        <v>1.26222668632083</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3037607364528725</v>
+      </c>
+      <c r="R17">
+        <v>1.119410793350031</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.361530046008454</v>
+        <v>1.216586232341797</v>
       </c>
       <c r="C18">
-        <v>0.3508576590693337</v>
+        <v>0.4091341009516327</v>
       </c>
       <c r="D18">
-        <v>0.0297258059351222</v>
+        <v>0.04277955225354191</v>
       </c>
       <c r="E18">
-        <v>0.02366193214896306</v>
+        <v>0.02790124464965515</v>
       </c>
       <c r="F18">
-        <v>1.589492382040206</v>
+        <v>1.373497545199584</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07878304736375696</v>
+        <v>0.07762190779742184</v>
       </c>
       <c r="I18">
-        <v>0.007234877658931715</v>
+        <v>0.005360741139377012</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.7930393359920629</v>
+        <v>0.6324162333793808</v>
       </c>
       <c r="L18">
-        <v>0.03863675937810207</v>
+        <v>0.247935856439895</v>
       </c>
       <c r="M18">
-        <v>1.676204075349119</v>
+        <v>0.2279145669894156</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.03982821614257226</v>
       </c>
       <c r="O18">
-        <v>0.3496015748154946</v>
+        <v>1.611357152092609</v>
       </c>
       <c r="P18">
-        <v>1.335526177960183</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3461976216240359</v>
+      </c>
+      <c r="R18">
+        <v>1.168939052254981</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.390642437235755</v>
+        <v>1.232564169699089</v>
       </c>
       <c r="C19">
-        <v>0.3827218803325536</v>
+        <v>0.4483362881190942</v>
       </c>
       <c r="D19">
-        <v>0.04044424621798726</v>
+        <v>0.05656910302315055</v>
       </c>
       <c r="E19">
-        <v>0.04145109380751855</v>
+        <v>0.04729622432560276</v>
       </c>
       <c r="F19">
-        <v>1.777466199059631</v>
+        <v>1.53099022279676</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03272260940510563</v>
+        <v>0.03167051748589245</v>
       </c>
       <c r="I19">
-        <v>0.007018639870794097</v>
+        <v>0.005283732817642495</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.8729094005500002</v>
+        <v>0.6911097740414505</v>
       </c>
       <c r="L19">
-        <v>0.0625755483035384</v>
+        <v>0.2699616837760495</v>
       </c>
       <c r="M19">
-        <v>1.742420157232118</v>
+        <v>0.2498629886152699</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0629006367179592</v>
       </c>
       <c r="O19">
-        <v>0.4163855658567925</v>
+        <v>1.670732809183079</v>
       </c>
       <c r="P19">
-        <v>1.431519477540704</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4123569643587288</v>
+      </c>
+      <c r="R19">
+        <v>1.231440163394538</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.509710871346329</v>
+        <v>1.320967017182824</v>
       </c>
       <c r="C20">
-        <v>0.4527170119469872</v>
+        <v>0.5338904031832215</v>
       </c>
       <c r="D20">
-        <v>0.06166496795270859</v>
+        <v>0.08398331831736527</v>
       </c>
       <c r="E20">
-        <v>0.08436431172062342</v>
+        <v>0.09318395944663749</v>
       </c>
       <c r="F20">
-        <v>2.133175739471412</v>
+        <v>1.823910133330486</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.003821920787982158</v>
+        <v>0.003141201737011379</v>
       </c>
       <c r="I20">
-        <v>0.005407589724359063</v>
+        <v>0.004228076845028461</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>1.020602649870682</v>
+        <v>0.7959959840328281</v>
       </c>
       <c r="L20">
-        <v>0.1321384915920376</v>
+        <v>0.3055908649235661</v>
       </c>
       <c r="M20">
-        <v>1.936657015951369</v>
+        <v>0.293523954434967</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1306413158564439</v>
       </c>
       <c r="O20">
-        <v>0.5491521922505953</v>
+        <v>1.849393202812479</v>
       </c>
       <c r="P20">
-        <v>1.593906962738089</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5436732492951108</v>
+      </c>
+      <c r="R20">
+        <v>1.330464310394483</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.707005518655222</v>
+        <v>1.487230144280716</v>
       </c>
       <c r="C21">
-        <v>0.5144362815725287</v>
+        <v>0.607975481074277</v>
       </c>
       <c r="D21">
-        <v>0.07112499381835136</v>
+        <v>0.09722169931484359</v>
       </c>
       <c r="E21">
-        <v>0.09870667438254443</v>
+        <v>0.1086249649936022</v>
       </c>
       <c r="F21">
-        <v>2.317583545091964</v>
+        <v>1.965627286874877</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001494871806069664</v>
+        <v>0.001164537573134838</v>
       </c>
       <c r="I21">
-        <v>0.00328646385279896</v>
+        <v>0.002860673312673256</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.088706067484331</v>
+        <v>0.8366431966043422</v>
       </c>
       <c r="L21">
-        <v>0.1545237017898415</v>
+        <v>0.3101393620130892</v>
       </c>
       <c r="M21">
-        <v>2.192436346045014</v>
+        <v>0.3218217612802619</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1519178347487724</v>
       </c>
       <c r="O21">
-        <v>0.6269072374339189</v>
+        <v>2.090265218787266</v>
       </c>
       <c r="P21">
-        <v>1.602102881125191</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6201560315296533</v>
+      </c>
+      <c r="R21">
+        <v>1.311154099979611</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.837432479295018</v>
+        <v>1.597565921225737</v>
       </c>
       <c r="C22">
-        <v>0.5512620103411905</v>
+        <v>0.6523803222772244</v>
       </c>
       <c r="D22">
-        <v>0.07595673114870749</v>
+        <v>0.1042370274652171</v>
       </c>
       <c r="E22">
-        <v>0.1056884735154782</v>
+        <v>0.1161776598612221</v>
       </c>
       <c r="F22">
-        <v>2.429733375205743</v>
+        <v>2.051287499488396</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0006301842801814672</v>
+        <v>0.000458814539436414</v>
       </c>
       <c r="I22">
-        <v>0.002109965310266304</v>
+        <v>0.001992808037112326</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.131240470013161</v>
+        <v>0.8619790654304538</v>
       </c>
       <c r="L22">
-        <v>0.1653144943093778</v>
+        <v>0.3123549537978576</v>
       </c>
       <c r="M22">
-        <v>2.356666224174575</v>
+        <v>0.3406341598720743</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1620297579670407</v>
       </c>
       <c r="O22">
-        <v>0.6723536341367691</v>
+        <v>2.244858740055946</v>
       </c>
       <c r="P22">
-        <v>1.603947927306152</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6647761362744404</v>
+      </c>
+      <c r="R22">
+        <v>1.296551939186159</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.771748943135464</v>
+        <v>1.542149029114398</v>
       </c>
       <c r="C23">
-        <v>0.5300555903973247</v>
+        <v>0.6270767306166931</v>
       </c>
       <c r="D23">
-        <v>0.07298277609384485</v>
+        <v>0.1000573337377091</v>
       </c>
       <c r="E23">
-        <v>0.1018350566369435</v>
+        <v>0.1120216151982234</v>
       </c>
       <c r="F23">
-        <v>2.375575958012064</v>
+        <v>2.010463916806771</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001039042707439375</v>
+        <v>0.0007897945690238384</v>
       </c>
       <c r="I23">
-        <v>0.002360846854422505</v>
+        <v>0.002032083708266796</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.112566972700556</v>
+        <v>0.8516806784485027</v>
       </c>
       <c r="L23">
-        <v>0.1596525306763894</v>
+        <v>0.3123155700831006</v>
       </c>
       <c r="M23">
-        <v>2.270799864773124</v>
+        <v>0.3318276140832097</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1567240550027336</v>
       </c>
       <c r="O23">
-        <v>0.6482272463511549</v>
+        <v>2.164006511732509</v>
       </c>
       <c r="P23">
-        <v>1.607529851344864</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6410840912009306</v>
+      </c>
+      <c r="R23">
+        <v>1.307589333596532</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.517316205960242</v>
+        <v>1.326639417355011</v>
       </c>
       <c r="C24">
-        <v>0.4535537328214048</v>
+        <v>0.5354302406115607</v>
       </c>
       <c r="D24">
-        <v>0.06247340091069731</v>
+        <v>0.08509317391104076</v>
       </c>
       <c r="E24">
-        <v>0.08758046341775483</v>
+        <v>0.09660552260642064</v>
       </c>
       <c r="F24">
-        <v>2.163526066849698</v>
+        <v>1.849591045120476</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.003584895499548102</v>
+        <v>0.002919253277074763</v>
       </c>
       <c r="I24">
-        <v>0.004838300502592041</v>
+        <v>0.003576081727069358</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>1.036103391819893</v>
+        <v>0.8078705143737537</v>
       </c>
       <c r="L24">
-        <v>0.1382146005353704</v>
+        <v>0.3100699647532466</v>
       </c>
       <c r="M24">
-        <v>1.944686906371174</v>
+        <v>0.2979368768000157</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1365918891855742</v>
       </c>
       <c r="O24">
-        <v>0.5570877772202039</v>
+        <v>1.856529320832038</v>
       </c>
       <c r="P24">
-        <v>1.614548579699871</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5515200434113794</v>
+      </c>
+      <c r="R24">
+        <v>1.34496639894035</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.244248539519901</v>
+        <v>1.094069483297204</v>
       </c>
       <c r="C25">
-        <v>0.3735129088269389</v>
+        <v>0.4396681447093727</v>
       </c>
       <c r="D25">
-        <v>0.05133842626459995</v>
+        <v>0.06925072113948261</v>
       </c>
       <c r="E25">
-        <v>0.07244301008100607</v>
+        <v>0.08019482653593357</v>
       </c>
       <c r="F25">
-        <v>1.939597133550805</v>
+        <v>1.679512577670522</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.008249829502933292</v>
+        <v>0.006908379446651569</v>
       </c>
       <c r="I25">
-        <v>0.009489798711022068</v>
+        <v>0.006797253814937676</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.9553614506688248</v>
+        <v>0.7615122751711922</v>
       </c>
       <c r="L25">
-        <v>0.115376767066401</v>
+        <v>0.3070241658058492</v>
       </c>
       <c r="M25">
-        <v>1.596731070351041</v>
+        <v>0.2647421044937985</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1150573125889451</v>
       </c>
       <c r="O25">
-        <v>0.4595991974296112</v>
+        <v>1.527530489074593</v>
       </c>
       <c r="P25">
-        <v>1.624021432334018</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4555753723225635</v>
+      </c>
+      <c r="R25">
+        <v>1.387045871671276</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
